--- a/Barabanca/src/test/resources/Report.xlsx
+++ b/Barabanca/src/test/resources/Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Vizerium\java_workspace\git\vizerium\Barabanca\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E8FC42-5BEA-4D08-AB55-6421C0C77C59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A131F49-A535-4194-9D46-0642E54AEEE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A8E966D3-203F-45A3-8888-7BA12E91A546}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{A8E966D3-203F-45A3-8888-7BA12E91A546}"/>
   </bookViews>
   <sheets>
     <sheet name="Yearly Data" sheetId="3" r:id="rId1"/>
@@ -89,12 +89,6 @@
     <t>5x13EMA, SLx13</t>
   </si>
   <si>
-    <t>5EMA Trend</t>
-  </si>
-  <si>
-    <t>13EMA Trend</t>
-  </si>
-  <si>
     <t>MACD Hist 12,26 Higher TimeFormat Trend</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>MACD Hist 5,13 Same TimeFormat Trend</t>
+  </si>
+  <si>
+    <t>5EMA Slope</t>
+  </si>
+  <si>
+    <t>13EMA Slope</t>
   </si>
 </sst>
 </file>
@@ -486,14 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C984CB5E-3ADD-4073-8940-9BA3C70651A9}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="K113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +560,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -611,7 +610,7 @@
         <v>4649.0937999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -657,7 +656,7 @@
         <v>-6242.6270000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -723,7 +722,7 @@
         <v>-1593.5332000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -765,7 +764,7 @@
         <v>2405.1016</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -807,7 +806,7 @@
         <v>-1074.6504</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -857,7 +856,7 @@
         <v>1330.4512</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -899,7 +898,7 @@
         <v>2058.6552999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -941,7 +940,7 @@
         <v>-2538.3407999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -991,7 +990,7 @@
         <v>-479.68554999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>794.39940000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>-184.85059000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1125,9 +1124,9 @@
         <v>609.54880000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1175,9 +1174,9 @@
         <v>2021.8417999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -1221,9 +1220,9 @@
         <v>-3121.8555000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -1287,9 +1286,9 @@
         <v>-1100.0137</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -1329,9 +1328,9 @@
         <v>1924.5508</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -1371,9 +1370,9 @@
         <v>-574.15039999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1421,9 +1420,9 @@
         <v>1350.4004</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -1463,9 +1462,9 @@
         <v>987.15233999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -1505,9 +1504,9 @@
         <v>-1491.9463000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1555,9 +1554,9 @@
         <v>-504.79395</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -1597,9 +1596,9 @@
         <v>593.69920000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -1639,9 +1638,9 @@
         <v>-69.25</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -1689,9 +1688,9 @@
         <v>524.44920000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1705,11 +1704,11 @@
       </c>
       <c r="I26" s="2">
         <f>SUM(D26,D29,D32,D35)</f>
-        <v>192459.75524999999</v>
+        <v>191489.90464999998</v>
       </c>
       <c r="J26" s="7">
         <f>100*I28/I26</f>
-        <v>7.5347876875157791</v>
+        <v>7.033416548312017</v>
       </c>
       <c r="K26" s="2">
         <v>10397.904</v>
@@ -1739,9 +1738,9 @@
         <v>1899.6445000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -1755,7 +1754,7 @@
       </c>
       <c r="I27" s="2">
         <f>SUM(D27,D30,D33,D36)</f>
-        <v>-177958.321</v>
+        <v>-178021.62150000001</v>
       </c>
       <c r="K27" s="2">
         <v>-11313.138000000001</v>
@@ -1785,9 +1784,9 @@
         <v>-2751.5585999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -1817,7 +1816,7 @@
       </c>
       <c r="I28" s="2">
         <f>SUM(D28,D31,D34,D37)</f>
-        <v>14501.433942000001</v>
+        <v>13468.282642</v>
       </c>
       <c r="J28" s="4">
         <f>100 *H28/G28</f>
@@ -1851,9 +1850,9 @@
         <v>-851.91405999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -1863,10 +1862,10 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>44883.207900000009</v>
+        <v>43913.357300000003</v>
       </c>
       <c r="K29" s="2">
-        <v>2933.3018000000002</v>
+        <v>1963.4512</v>
       </c>
       <c r="L29" s="2">
         <v>4200.9989999999998</v>
@@ -1893,9 +1892,9 @@
         <v>659.44920000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -1905,10 +1904,10 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-34554.632600000004</v>
+        <v>-34617.933100000002</v>
       </c>
       <c r="K30" s="2">
-        <v>-4202.8975</v>
+        <v>-4266.1980000000003</v>
       </c>
       <c r="L30" s="2">
         <v>-4344.7020000000002</v>
@@ -1935,9 +1934,9 @@
         <v>-886.55079999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -1947,7 +1946,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>10328.575020000002</v>
+        <v>9295.4237200000007</v>
       </c>
       <c r="E31">
         <f>COUNT(K31:S31)</f>
@@ -1958,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="K31" s="2">
-        <v>-1269.5957000000001</v>
+        <v>-2302.7469999999998</v>
       </c>
       <c r="L31" s="2">
         <v>-143.70312000000001</v>
@@ -1985,9 +1984,9 @@
         <v>-227.10156000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -2027,9 +2026,9 @@
         <v>738.75194999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -2069,9 +2068,9 @@
         <v>-1475.2471</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -2119,9 +2118,9 @@
         <v>-736.49509999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -2161,9 +2160,9 @@
         <v>330.75</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -2203,9 +2202,9 @@
         <v>-69.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -2253,7 +2252,7 @@
         <v>261.5</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2303,7 +2302,7 @@
         <v>1202.6992</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2348,7 @@
         <v>-3252.5527000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>-2049.8535000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2457,7 +2456,7 @@
         <v>55.25</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>-43.898437999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>11.3515625</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2590,7 @@
         <v>494.69922000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>-555.04880000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2682,7 @@
         <v>-60.349609999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2725,7 +2724,7 @@
         <v>89.549805000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2766,7 @@
         <v>-555.5</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +2816,7 @@
         <v>-465.9502</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +2866,7 @@
         <v>1055.9023</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +2912,7 @@
         <v>-3597.4531000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -2979,7 +2978,7 @@
         <v>-2541.5508</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -3021,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -3063,7 +3062,7 @@
         <v>-302.59960000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>-302.59960000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>-686.84766000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>71.152339999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>3.8007811999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>-623.45119999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -3383,7 +3382,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
@@ -3433,7 +3432,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -3479,7 +3478,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
@@ -3543,9 +3542,9 @@
         <v>464.90039999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -3585,9 +3584,9 @@
         <v>835.90039999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -3627,9 +3626,9 @@
         <v>-216.5</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -3677,9 +3676,9 @@
         <v>619.40039999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>2</v>
@@ -3719,9 +3718,9 @@
         <v>290.2998</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>2</v>
@@ -3761,9 +3760,9 @@
         <v>-399.14940000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>2</v>
@@ -3811,9 +3810,9 @@
         <v>-108.84961</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
@@ -3853,9 +3852,9 @@
         <v>291.59960000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>3</v>
@@ -3895,9 +3894,9 @@
         <v>-1100.0996</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>3</v>
@@ -3947,7 +3946,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
@@ -3997,7 +3996,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
@@ -4043,7 +4042,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
@@ -4107,9 +4106,9 @@
         <v>-1004.9512</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -4149,9 +4148,9 @@
         <v>295.65039999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -4191,9 +4190,9 @@
         <v>-1939.0977</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -4241,9 +4240,9 @@
         <v>-1643.4473</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>2</v>
@@ -4283,9 +4282,9 @@
         <v>1144.5488</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
@@ -4325,9 +4324,9 @@
         <v>-1549.6504</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2</v>
@@ -4375,9 +4374,9 @@
         <v>-405.10156000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>3</v>
@@ -4417,9 +4416,9 @@
         <v>40.599609999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>3</v>
@@ -4459,9 +4458,9 @@
         <v>-237.4502</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3</v>
@@ -4511,7 +4510,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
@@ -4561,7 +4560,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
@@ -4607,7 +4606,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
@@ -4671,9 +4670,9 @@
         <v>1283.2988</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -4713,9 +4712,9 @@
         <v>485.19922000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -4755,9 +4754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -4805,9 +4804,9 @@
         <v>485.19922000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>2</v>
@@ -4847,9 +4846,9 @@
         <v>639.60155999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>2</v>
@@ -4889,9 +4888,9 @@
         <v>-443.19922000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>2</v>
@@ -4939,9 +4938,9 @@
         <v>196.40234000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>3</v>
@@ -4981,9 +4980,9 @@
         <v>291.59960000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>3</v>
@@ -5023,9 +5022,9 @@
         <v>-1026.0996</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>3</v>
@@ -5075,7 +5074,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
@@ -5125,7 +5124,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
@@ -5171,7 +5170,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
@@ -5235,9 +5234,9 @@
         <v>-1201.5098</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -5277,9 +5276,9 @@
         <v>581.69920000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -5319,9 +5318,9 @@
         <v>-653.65039999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -5369,9 +5368,9 @@
         <v>-71.951170000000005</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>2</v>
@@ -5411,9 +5410,9 @@
         <v>1153.6494</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>2</v>
@@ -5453,9 +5452,9 @@
         <v>-1593.0459000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>2</v>
@@ -5503,9 +5502,9 @@
         <v>-439.39648</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>3</v>
@@ -5545,9 +5544,9 @@
         <v>129.89940999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>3</v>
@@ -5587,9 +5586,9 @@
         <v>-62.25</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3</v>
@@ -5677,42 +5676,42 @@
       </c>
       <c r="D119" s="2">
         <f t="shared" ref="D119:D130" si="7">SUM(K119:S119)</f>
-        <v>98019.902499999997</v>
+        <v>97879.683700000009</v>
       </c>
       <c r="I119" s="2">
         <f>SUM(D119,D122,D125,D128)</f>
-        <v>192459.75524999999</v>
+        <v>176105.75004000001</v>
       </c>
       <c r="J119" s="4">
         <f>100*I121/I119</f>
-        <v>7.5347876875157791</v>
+        <v>13.469525790391391</v>
       </c>
       <c r="K119" s="2">
-        <v>10397.904</v>
+        <v>8511.0040000000008</v>
       </c>
       <c r="L119" s="2">
-        <v>8559.4490000000005</v>
+        <v>6535.5977000000003</v>
       </c>
       <c r="M119" s="2">
-        <v>12378.045</v>
+        <v>12663.896000000001</v>
       </c>
       <c r="N119" s="2">
-        <v>12400.749</v>
+        <v>10116.958000000001</v>
       </c>
       <c r="O119" s="2">
-        <v>12106.787</v>
+        <v>12789.093999999999</v>
       </c>
       <c r="P119" s="2">
-        <v>11608.259</v>
+        <v>12931.798000000001</v>
       </c>
       <c r="Q119" s="2">
-        <v>11472.755999999999</v>
+        <v>12654.24</v>
       </c>
       <c r="R119" s="2">
-        <v>17196.309000000001</v>
+        <v>19228.098000000002</v>
       </c>
       <c r="S119" s="2">
-        <v>1899.6445000000001</v>
+        <v>2448.998</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -5727,38 +5726,38 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" si="7"/>
-        <v>-97765.276599999997</v>
+        <v>-81496.658999999985</v>
       </c>
       <c r="I120" s="2">
         <f>SUM(D120,D123,D126,D129)</f>
-        <v>-177958.321</v>
+        <v>-152385.13796999998</v>
       </c>
       <c r="K120" s="2">
-        <v>-11313.138000000001</v>
+        <v>-8951.3960000000006</v>
       </c>
       <c r="L120" s="2">
-        <v>-9992.6039999999994</v>
+        <v>-8261.9030000000002</v>
       </c>
       <c r="M120" s="2">
-        <v>-12072.295</v>
+        <v>-12318.701999999999</v>
       </c>
       <c r="N120" s="2">
-        <v>-10407.647000000001</v>
+        <v>-8201.8520000000008</v>
       </c>
       <c r="O120" s="2">
-        <v>-14762.915000000001</v>
+        <v>-9979.4079999999994</v>
       </c>
       <c r="P120" s="2">
-        <v>-12429.550999999999</v>
+        <v>-11446.662</v>
       </c>
       <c r="Q120" s="2">
-        <v>-11230.605</v>
+        <v>-7788.1913999999997</v>
       </c>
       <c r="R120" s="2">
-        <v>-12804.963</v>
+        <v>-12365.692999999999</v>
       </c>
       <c r="S120" s="2">
-        <v>-2751.5585999999998</v>
+        <v>-2182.8516</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -5773,7 +5772,7 @@
       </c>
       <c r="D121" s="2">
         <f t="shared" si="7"/>
-        <v>254.62542999999926</v>
+        <v>16383.022939999999</v>
       </c>
       <c r="E121">
         <f>COUNT(K121:S121)</f>
@@ -5781,7 +5780,7 @@
       </c>
       <c r="F121">
         <f>COUNTIF(K121:S121,"&gt;0")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G121">
         <f>SUM(E121,E124,E127,E130)</f>
@@ -5789,42 +5788,42 @@
       </c>
       <c r="H121">
         <f>SUM(F121,F124,F127,F130)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I121" s="2">
         <f>SUM(D121,D124,D127,D130)</f>
-        <v>14501.433942000001</v>
+        <v>23720.609419999997</v>
       </c>
       <c r="J121" s="4">
         <f>100 *H121/G121</f>
-        <v>47.222222222222221</v>
+        <v>63.888888888888886</v>
       </c>
       <c r="K121" s="2">
-        <v>-915.23440000000005</v>
+        <v>-440.39258000000001</v>
       </c>
       <c r="L121" s="2">
-        <v>-1433.1538</v>
+        <v>-1726.3062</v>
       </c>
       <c r="M121" s="2">
-        <v>305.75</v>
+        <v>345.19434000000001</v>
       </c>
       <c r="N121" s="2">
-        <v>1993.1016</v>
+        <v>1915.1063999999999</v>
       </c>
       <c r="O121" s="2">
-        <v>-2656.1280000000002</v>
+        <v>2809.6855</v>
       </c>
       <c r="P121" s="2">
-        <v>-821.29200000000003</v>
+        <v>1485.1357</v>
       </c>
       <c r="Q121" s="2">
-        <v>242.15038999999999</v>
+        <v>4866.049</v>
       </c>
       <c r="R121" s="2">
-        <v>4391.3456999999999</v>
+        <v>6862.4043000000001</v>
       </c>
       <c r="S121" s="2">
-        <v>-851.91405999999995</v>
+        <v>266.14648</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -5839,34 +5838,34 @@
       </c>
       <c r="D122" s="2">
         <f t="shared" si="7"/>
-        <v>44883.207900000009</v>
+        <v>36072.504330000003</v>
       </c>
       <c r="K122" s="2">
-        <v>2933.3018000000002</v>
+        <v>3065.8008</v>
       </c>
       <c r="L122" s="2">
-        <v>4200.9989999999998</v>
+        <v>4539.5020000000004</v>
       </c>
       <c r="M122" s="2">
-        <v>5098.4989999999998</v>
+        <v>2932.7002000000002</v>
       </c>
       <c r="N122" s="2">
-        <v>6726.9022999999997</v>
+        <v>6711.5519999999997</v>
       </c>
       <c r="O122" s="2">
-        <v>4845.5510000000004</v>
+        <v>4956.4472999999998</v>
       </c>
       <c r="P122" s="2">
-        <v>8352.4529999999995</v>
+        <v>5203.9043000000001</v>
       </c>
       <c r="Q122" s="2">
-        <v>7132.7030000000004</v>
+        <v>3567.7968999999998</v>
       </c>
       <c r="R122" s="2">
-        <v>4933.3495999999996</v>
+        <v>4808.7520000000004</v>
       </c>
       <c r="S122" s="2">
-        <v>659.44920000000002</v>
+        <v>286.04883000000001</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
@@ -5881,34 +5880,34 @@
       </c>
       <c r="D123" s="2">
         <f t="shared" si="7"/>
-        <v>-34554.632600000004</v>
+        <v>-27965.947210000002</v>
       </c>
       <c r="K123" s="2">
-        <v>-4202.8975</v>
+        <v>-1461.999</v>
       </c>
       <c r="L123" s="2">
-        <v>-4344.7020000000002</v>
+        <v>-3908.4023000000002</v>
       </c>
       <c r="M123" s="2">
-        <v>-3141.5497999999998</v>
+        <v>-4566.9989999999998</v>
       </c>
       <c r="N123" s="2">
-        <v>-3706.2988</v>
+        <v>-3547.3975</v>
       </c>
       <c r="O123" s="2">
-        <v>-7181.8945000000003</v>
+        <v>-3795.498</v>
       </c>
       <c r="P123" s="2">
-        <v>-3021.7489999999998</v>
+        <v>-4038.0518000000002</v>
       </c>
       <c r="Q123" s="2">
-        <v>-1837.5996</v>
+        <v>-3325.998</v>
       </c>
       <c r="R123" s="2">
-        <v>-6231.3905999999997</v>
+        <v>-3270.252</v>
       </c>
       <c r="S123" s="2">
-        <v>-886.55079999999998</v>
+        <v>-51.349609999999998</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -5923,7 +5922,7 @@
       </c>
       <c r="D124" s="2">
         <f t="shared" si="7"/>
-        <v>10328.575020000002</v>
+        <v>8106.5566499999995</v>
       </c>
       <c r="E124">
         <f>COUNT(K124:S124)</f>
@@ -5931,34 +5930,34 @@
       </c>
       <c r="F124">
         <f>COUNTIF(K124:S124,"&gt;0")</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K124" s="2">
-        <v>-1269.5957000000001</v>
+        <v>1603.8018</v>
       </c>
       <c r="L124" s="2">
-        <v>-143.70312000000001</v>
+        <v>631.09960000000001</v>
       </c>
       <c r="M124" s="2">
-        <v>1956.9492</v>
+        <v>-1634.2988</v>
       </c>
       <c r="N124" s="2">
-        <v>3020.6035000000002</v>
+        <v>3164.1543000000001</v>
       </c>
       <c r="O124" s="2">
-        <v>-2336.3438000000001</v>
+        <v>1160.9492</v>
       </c>
       <c r="P124" s="2">
-        <v>5330.7039999999997</v>
+        <v>1165.8525</v>
       </c>
       <c r="Q124" s="2">
-        <v>5295.1035000000002</v>
+        <v>241.79883000000001</v>
       </c>
       <c r="R124" s="2">
-        <v>-1298.0409999999999</v>
+        <v>1538.5</v>
       </c>
       <c r="S124" s="2">
-        <v>-227.10156000000001</v>
+        <v>234.69922</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
@@ -5973,34 +5972,34 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" si="7"/>
-        <v>34581.040749999993</v>
+        <v>30661.2094</v>
       </c>
       <c r="K125" s="2">
-        <v>4505.4989999999998</v>
+        <v>3560.0502999999999</v>
       </c>
       <c r="L125" s="2">
-        <v>2934.9994999999999</v>
+        <v>2360.8519999999999</v>
       </c>
       <c r="M125" s="2">
-        <v>3647.7505000000001</v>
+        <v>3373</v>
       </c>
       <c r="N125" s="2">
-        <v>3640.6475</v>
+        <v>3021.8027000000002</v>
       </c>
       <c r="O125" s="2">
-        <v>4886.3490000000002</v>
+        <v>3679.3027000000002</v>
       </c>
       <c r="P125" s="2">
-        <v>4224.1953000000003</v>
+        <v>5681.0005000000001</v>
       </c>
       <c r="Q125" s="2">
-        <v>4000.15</v>
+        <v>3812.1016</v>
       </c>
       <c r="R125" s="2">
-        <v>6002.6980000000003</v>
+        <v>4573.9989999999998</v>
       </c>
       <c r="S125" s="2">
-        <v>738.75194999999997</v>
+        <v>599.10059999999999</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
@@ -6015,34 +6014,34 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" si="7"/>
-        <v>-32503.466500000002</v>
+        <v>-31929.238900000004</v>
       </c>
       <c r="K126" s="2">
-        <v>-4078.1484</v>
+        <v>-4159.8469999999998</v>
       </c>
       <c r="L126" s="2">
-        <v>-2991.4023000000002</v>
+        <v>-2818.6475</v>
       </c>
       <c r="M126" s="2">
-        <v>-4182.4994999999999</v>
+        <v>-3841.0981000000002</v>
       </c>
       <c r="N126" s="2">
-        <v>-3281.3975</v>
+        <v>-3197.7489999999998</v>
       </c>
       <c r="O126" s="2">
-        <v>-4398.5513000000001</v>
+        <v>-5195.1522999999997</v>
       </c>
       <c r="P126" s="2">
-        <v>-4431.3559999999998</v>
+        <v>-3714.4023000000002</v>
       </c>
       <c r="Q126" s="2">
-        <v>-3260.6104</v>
+        <v>-2667.6963000000001</v>
       </c>
       <c r="R126" s="2">
-        <v>-4404.2539999999999</v>
+        <v>-5265.7479999999996</v>
       </c>
       <c r="S126" s="2">
-        <v>-1475.2471</v>
+        <v>-1068.8984</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
@@ -6057,7 +6056,7 @@
       </c>
       <c r="D127" s="2">
         <f t="shared" si="7"/>
-        <v>2077.5747279999996</v>
+        <v>-1268.0297800000003</v>
       </c>
       <c r="E127">
         <f>COUNT(K127:S127)</f>
@@ -6065,34 +6064,34 @@
       </c>
       <c r="F127">
         <f>COUNTIF(K127:S127,"&gt;0")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K127" s="2">
-        <v>427.35059999999999</v>
+        <v>-599.79690000000005</v>
       </c>
       <c r="L127" s="2">
-        <v>-56.402831999999997</v>
+        <v>-457.79539999999997</v>
       </c>
       <c r="M127" s="2">
-        <v>-534.74900000000002</v>
+        <v>-468.09814</v>
       </c>
       <c r="N127" s="2">
-        <v>359.25</v>
+        <v>-175.94629</v>
       </c>
       <c r="O127" s="2">
-        <v>487.79784999999998</v>
+        <v>-1515.8496</v>
       </c>
       <c r="P127" s="2">
-        <v>-207.16064</v>
+        <v>1966.5980999999999</v>
       </c>
       <c r="Q127" s="2">
-        <v>739.53954999999996</v>
+        <v>1144.4052999999999</v>
       </c>
       <c r="R127" s="2">
-        <v>1598.4443000000001</v>
+        <v>-691.74900000000002</v>
       </c>
       <c r="S127" s="2">
-        <v>-736.49509999999998</v>
+        <v>-469.79784999999998</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
@@ -6107,34 +6106,34 @@
       </c>
       <c r="D128" s="2">
         <f t="shared" si="7"/>
-        <v>14975.6041</v>
+        <v>11492.35261</v>
       </c>
       <c r="K128" s="2">
-        <v>1030.6504</v>
+        <v>1593.2494999999999</v>
       </c>
       <c r="L128" s="2">
-        <v>1393.9009000000001</v>
+        <v>1207.5513000000001</v>
       </c>
       <c r="M128" s="2">
-        <v>1231.1509000000001</v>
+        <v>762.05029999999999</v>
       </c>
       <c r="N128" s="2">
-        <v>2746.9506999999999</v>
+        <v>1900.1011000000001</v>
       </c>
       <c r="O128" s="2">
-        <v>1376.3013000000001</v>
+        <v>1586.3496</v>
       </c>
       <c r="P128" s="2">
-        <v>1957.6498999999999</v>
+        <v>960.69970000000001</v>
       </c>
       <c r="Q128" s="2">
-        <v>1748.1006</v>
+        <v>1984.6011000000001</v>
       </c>
       <c r="R128" s="2">
-        <v>3160.1493999999998</v>
+        <v>1468.6504</v>
       </c>
       <c r="S128" s="2">
-        <v>330.75</v>
+        <v>29.099609999999998</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
@@ -6149,34 +6148,34 @@
       </c>
       <c r="D129" s="2">
         <f t="shared" si="7"/>
-        <v>-13134.945299999999</v>
+        <v>-10993.29286</v>
       </c>
       <c r="K129" s="2">
-        <v>-2297.2494999999999</v>
+        <v>-876.10059999999999</v>
       </c>
       <c r="L129" s="2">
-        <v>-1715.001</v>
+        <v>-984.49950000000001</v>
       </c>
       <c r="M129" s="2">
-        <v>-1438.6488999999999</v>
+        <v>-1453.0980999999999</v>
       </c>
       <c r="N129" s="2">
-        <v>-937.05029999999999</v>
+        <v>-1023.1001</v>
       </c>
       <c r="O129" s="2">
-        <v>-2610.3467000000001</v>
+        <v>-922.49756000000002</v>
       </c>
       <c r="P129" s="2">
-        <v>-2049.7505000000001</v>
+        <v>-2028.0996</v>
       </c>
       <c r="Q129" s="2">
-        <v>-502.64940000000001</v>
+        <v>-1198.8486</v>
       </c>
       <c r="R129" s="2">
-        <v>-1514.999</v>
+        <v>-2507.0488</v>
       </c>
       <c r="S129" s="2">
-        <v>-69.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.3">
@@ -6191,7 +6190,7 @@
       </c>
       <c r="D130" s="2">
         <f t="shared" si="7"/>
-        <v>1840.658764</v>
+        <v>499.05960999999979</v>
       </c>
       <c r="E130">
         <f>COUNT(K130:S130)</f>
@@ -6199,52 +6198,38 @@
       </c>
       <c r="F130">
         <f>COUNTIF(K130:S130,"&gt;0")</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K130" s="2">
-        <v>-1266.5990999999999</v>
+        <v>717.14890000000003</v>
       </c>
       <c r="L130" s="2">
-        <v>-321.1001</v>
+        <v>223.05176</v>
       </c>
       <c r="M130" s="2">
-        <v>-207.49805000000001</v>
+        <v>-691.04785000000004</v>
       </c>
       <c r="N130" s="2">
-        <v>1809.9004</v>
+        <v>877.00099999999998</v>
       </c>
       <c r="O130" s="2">
-        <v>-1234.0454</v>
+        <v>663.85204999999996</v>
       </c>
       <c r="P130" s="2">
-        <v>-92.100586000000007</v>
+        <v>-1067.3998999999999</v>
       </c>
       <c r="Q130" s="2">
-        <v>1245.4512</v>
+        <v>785.75243999999998</v>
       </c>
       <c r="R130" s="2">
-        <v>1645.1504</v>
+        <v>-1038.3984</v>
       </c>
       <c r="S130" s="2">
-        <v>261.5</v>
+        <v>29.099609999999998</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S109" xr:uid="{45F2E7C2-2A5C-4EF8-8522-DCC872029F0C}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="MACD Hist 12,26 Higher TimeFormat Trend"/>
-        <filter val="MACD Hist 12,26 Same TimeFormat Trend"/>
-        <filter val="MACD Hist 5,13 Higher TimeFormat Trend"/>
-        <filter val="MACD Hist 5,13 Same TimeFormat Trend"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BN Hourly"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S109" xr:uid="{45F2E7C2-2A5C-4EF8-8522-DCC872029F0C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6255,11 +6240,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:DD136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="10" ySplit="1" topLeftCell="CV14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="10" ySplit="1" topLeftCell="DB98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="DE120" sqref="DE120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10369,9 +10354,9 @@
         <v>463.44824</v>
       </c>
     </row>
-    <row r="14" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -10686,9 +10671,9 @@
         <v>759.64453000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -10999,9 +10984,9 @@
         <v>-1686.2578000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>0</v>
@@ -11332,9 +11317,9 @@
         <v>-926.61329999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -11641,9 +11626,9 @@
         <v>1609.7012</v>
       </c>
     </row>
-    <row r="18" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -11950,9 +11935,9 @@
         <v>-206.30078</v>
       </c>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -12267,9 +12252,9 @@
         <v>1403.4004</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>2</v>
@@ -12576,9 +12561,9 @@
         <v>455.40233999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
@@ -12885,9 +12870,9 @@
         <v>-618.39746000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -13202,9 +13187,9 @@
         <v>-162.99511999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -13511,9 +13496,9 @@
         <v>463.44824</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -13820,9 +13805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -14137,9 +14122,9 @@
         <v>463.44824</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -14153,11 +14138,11 @@
       </c>
       <c r="I26" s="2">
         <f>SUM(D26,D29,D32,D35)</f>
-        <v>192459.75471630003</v>
+        <v>191489.90411630002</v>
       </c>
       <c r="J26" s="4">
         <f>100*I28/I26</f>
-        <v>7.5347879511829339</v>
+        <v>7.0334167805839716</v>
       </c>
       <c r="K26" s="2">
         <v>636.09960000000001</v>
@@ -14454,9 +14439,9 @@
         <v>594.19529999999997</v>
       </c>
     </row>
-    <row r="27" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -14470,7 +14455,7 @@
       </c>
       <c r="I27" s="2">
         <f>SUM(D27,D30,D33,D36)</f>
-        <v>-177958.32076919999</v>
+        <v>-178021.62156920001</v>
       </c>
       <c r="K27" s="2">
         <v>-1401.4473</v>
@@ -14767,9 +14752,9 @@
         <v>-1701.6561999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -14795,15 +14780,15 @@
       </c>
       <c r="H28">
         <f>SUM(F28,F31,F34,F37)</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="2">
         <f>SUM(D28,D31,D34,D37)</f>
-        <v>14501.434409240002</v>
+        <v>13468.283049240003</v>
       </c>
       <c r="J28" s="4">
         <f>100 *H28/G28</f>
-        <v>46.173469387755105</v>
+        <v>45.918367346938773</v>
       </c>
       <c r="K28" s="2">
         <v>-765.34766000000002</v>
@@ -15100,9 +15085,9 @@
         <v>-1107.4609</v>
       </c>
     </row>
-    <row r="29" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>1</v>
@@ -15112,7 +15097,7 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" si="2"/>
-        <v>44883.20812000001</v>
+        <v>43913.357520000012</v>
       </c>
       <c r="K29" s="2">
         <v>668.84960000000001</v>
@@ -15121,7 +15106,7 @@
         <v>431.25</v>
       </c>
       <c r="M29" s="2">
-        <v>969.85059999999999</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
         <v>93.5</v>
@@ -15409,9 +15394,9 @@
         <v>606.19920000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>1</v>
@@ -15420,8 +15405,8 @@
         <v>6</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D27:D37" si="3">SUM(K30:DD30)</f>
-        <v>-34554.632757799998</v>
+        <f t="shared" ref="D30:D37" si="3">SUM(K30:DD30)</f>
+        <v>-34617.933557800003</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -15430,7 +15415,7 @@
         <v>-85.849609999999998</v>
       </c>
       <c r="M30" s="2">
-        <v>-532.74900000000002</v>
+        <v>-596.0498</v>
       </c>
       <c r="N30" s="2">
         <v>-291.19922000000003</v>
@@ -15718,9 +15703,9 @@
         <v>-558.5</v>
       </c>
     </row>
-    <row r="31" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -15730,7 +15715,7 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" si="3"/>
-        <v>10328.575436000003</v>
+        <v>9295.424076000003</v>
       </c>
       <c r="E31">
         <f>COUNT(K31:DD31)</f>
@@ -15738,7 +15723,7 @@
       </c>
       <c r="F31">
         <f>COUNTIF(K31:DD31,"&gt;0")</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="2">
         <v>668.84960000000001</v>
@@ -15747,7 +15732,7 @@
         <v>345.40039999999999</v>
       </c>
       <c r="M31" s="2">
-        <v>437.10156000000001</v>
+        <v>-596.0498</v>
       </c>
       <c r="N31" s="2">
         <v>-197.69922</v>
@@ -16035,9 +16020,9 @@
         <v>47.699219999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>2</v>
@@ -16344,9 +16329,9 @@
         <v>361.45116999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
@@ -16653,9 +16638,9 @@
         <v>-598.64844000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>2</v>
@@ -16970,9 +16955,9 @@
         <v>-237.19727</v>
       </c>
     </row>
-    <row r="35" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -17279,9 +17264,9 @@
         <v>200.49902</v>
       </c>
     </row>
-    <row r="36" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -17588,9 +17573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -25443,7 +25428,7 @@
     </row>
     <row r="62" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
@@ -25760,7 +25745,7 @@
     </row>
     <row r="63" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>0</v>
@@ -26073,7 +26058,7 @@
     </row>
     <row r="64" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
@@ -26406,7 +26391,7 @@
     </row>
     <row r="65" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1</v>
@@ -26715,7 +26700,7 @@
     </row>
     <row r="66" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -27024,7 +27009,7 @@
     </row>
     <row r="67" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -27341,7 +27326,7 @@
     </row>
     <row r="68" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>2</v>
@@ -27650,7 +27635,7 @@
     </row>
     <row r="69" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>2</v>
@@ -27959,7 +27944,7 @@
     </row>
     <row r="70" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>2</v>
@@ -28276,7 +28261,7 @@
     </row>
     <row r="71" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
@@ -28585,7 +28570,7 @@
     </row>
     <row r="72" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>3</v>
@@ -28894,7 +28879,7 @@
     </row>
     <row r="73" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>3</v>
@@ -29211,7 +29196,7 @@
     </row>
     <row r="74" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>0</v>
@@ -29528,7 +29513,7 @@
     </row>
     <row r="75" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>0</v>
@@ -29841,7 +29826,7 @@
     </row>
     <row r="76" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>0</v>
@@ -30174,7 +30159,7 @@
     </row>
     <row r="77" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1</v>
@@ -30483,7 +30468,7 @@
     </row>
     <row r="78" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1</v>
@@ -30792,7 +30777,7 @@
     </row>
     <row r="79" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1</v>
@@ -31109,7 +31094,7 @@
     </row>
     <row r="80" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>2</v>
@@ -31418,7 +31403,7 @@
     </row>
     <row r="81" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
@@ -31727,7 +31712,7 @@
     </row>
     <row r="82" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>2</v>
@@ -32044,7 +32029,7 @@
     </row>
     <row r="83" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>3</v>
@@ -32353,7 +32338,7 @@
     </row>
     <row r="84" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>3</v>
@@ -32662,7 +32647,7 @@
     </row>
     <row r="85" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3</v>
@@ -32979,7 +32964,7 @@
     </row>
     <row r="86" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>0</v>
@@ -33296,7 +33281,7 @@
     </row>
     <row r="87" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>0</v>
@@ -33609,7 +33594,7 @@
     </row>
     <row r="88" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>0</v>
@@ -33942,7 +33927,7 @@
     </row>
     <row r="89" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -34251,7 +34236,7 @@
     </row>
     <row r="90" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -34560,7 +34545,7 @@
     </row>
     <row r="91" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1</v>
@@ -34877,7 +34862,7 @@
     </row>
     <row r="92" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>2</v>
@@ -35186,7 +35171,7 @@
     </row>
     <row r="93" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>2</v>
@@ -35495,7 +35480,7 @@
     </row>
     <row r="94" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>2</v>
@@ -35812,7 +35797,7 @@
     </row>
     <row r="95" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>3</v>
@@ -36121,7 +36106,7 @@
     </row>
     <row r="96" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>3</v>
@@ -36430,7 +36415,7 @@
     </row>
     <row r="97" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>3</v>
@@ -36745,9 +36730,9 @@
         <v>-800.2998</v>
       </c>
     </row>
-    <row r="98" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>0</v>
@@ -37062,9 +37047,9 @@
         <v>743.20119999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>0</v>
@@ -37375,9 +37360,9 @@
         <v>-2018.5586000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>0</v>
@@ -37708,9 +37693,9 @@
         <v>-1275.3574000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>1</v>
@@ -38017,9 +38002,9 @@
         <v>458.69922000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>1</v>
@@ -38326,9 +38311,9 @@
         <v>-316.95116999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>1</v>
@@ -38643,9 +38628,9 @@
         <v>141.74805000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>2</v>
@@ -38952,9 +38937,9 @@
         <v>390.7998</v>
       </c>
     </row>
-    <row r="105" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>2</v>
@@ -39261,9 +39246,9 @@
         <v>-1002.8467000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>2</v>
@@ -39578,9 +39563,9 @@
         <v>-612.04690000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>3</v>
@@ -39887,9 +39872,9 @@
         <v>69.699219999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>3</v>
@@ -40196,9 +40181,9 @@
         <v>-62.25</v>
       </c>
     </row>
-    <row r="109" spans="1:108" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3</v>
@@ -40525,309 +40510,309 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" ref="D125:D136" si="9">SUM(K125:DD125)</f>
-        <v>98019.901710000006</v>
+        <v>97879.683277000033</v>
       </c>
       <c r="I125" s="2">
         <f>SUM(D125,D128,D131,D134)</f>
-        <v>192459.75471630003</v>
+        <v>176105.74913770001</v>
       </c>
       <c r="J125" s="4">
         <f>100*I127/I125</f>
-        <v>7.5347879511829339</v>
+        <v>13.469525923513411</v>
       </c>
       <c r="K125">
-        <v>636.09960000000001</v>
+        <v>1422.7002</v>
       </c>
       <c r="L125">
-        <v>842.40137000000004</v>
+        <v>295.80077999999997</v>
       </c>
       <c r="M125">
-        <v>850.15233999999998</v>
+        <v>601.20119999999997</v>
       </c>
       <c r="N125">
-        <v>399.24901999999997</v>
+        <v>900.80079999999998</v>
       </c>
       <c r="O125">
-        <v>839.34960000000001</v>
+        <v>246.84863000000001</v>
       </c>
       <c r="P125">
-        <v>441.59766000000002</v>
+        <v>383.04784999999998</v>
       </c>
       <c r="Q125">
-        <v>667.55079999999998</v>
+        <v>41.349609999999998</v>
       </c>
       <c r="R125">
-        <v>1615.1504</v>
+        <v>710.35059999999999</v>
       </c>
       <c r="S125">
-        <v>927.25</v>
+        <v>1319.7529</v>
       </c>
       <c r="T125">
-        <v>1195.9014</v>
+        <v>1790.5498</v>
       </c>
       <c r="U125">
-        <v>1160.7012</v>
+        <v>336.80077999999997</v>
       </c>
       <c r="V125">
-        <v>822.50049999999999</v>
+        <v>461.80029999999999</v>
       </c>
       <c r="W125">
-        <v>1228.1494</v>
+        <v>790.9502</v>
       </c>
       <c r="X125">
-        <v>1406.5986</v>
+        <v>216.40038999999999</v>
       </c>
       <c r="Y125">
-        <v>635.59960000000001</v>
+        <v>991.94920000000002</v>
       </c>
       <c r="Z125">
-        <v>408.75</v>
+        <v>91.150390000000002</v>
       </c>
       <c r="AA125">
-        <v>688.59960000000001</v>
+        <v>979.10155999999995</v>
       </c>
       <c r="AB125">
-        <v>530.74900000000002</v>
+        <v>420.44824</v>
       </c>
       <c r="AC125">
-        <v>647.2002</v>
+        <v>272.40039999999999</v>
       </c>
       <c r="AD125">
-        <v>294.90039999999999</v>
+        <v>453.2998</v>
       </c>
       <c r="AE125">
-        <v>1156.5</v>
+        <v>242.7002</v>
       </c>
       <c r="AF125">
-        <v>631.95119999999997</v>
+        <v>684.9502</v>
       </c>
       <c r="AG125">
-        <v>474.55077999999997</v>
+        <v>1025.5977</v>
       </c>
       <c r="AH125">
-        <v>455.90039999999999</v>
+        <v>366.64940000000001</v>
       </c>
       <c r="AI125">
-        <v>665.89940000000001</v>
+        <v>105.14941399999999</v>
       </c>
       <c r="AJ125">
-        <v>665.39844000000005</v>
+        <v>283.90039999999999</v>
       </c>
       <c r="AK125">
-        <v>935.7998</v>
+        <v>869.45214999999996</v>
       </c>
       <c r="AL125">
-        <v>1307.4521</v>
+        <v>827.24900000000002</v>
       </c>
       <c r="AM125">
-        <v>829.09960000000001</v>
+        <v>1467.2979</v>
       </c>
       <c r="AN125">
-        <v>968.59766000000002</v>
+        <v>79.799805000000006</v>
       </c>
       <c r="AO125">
-        <v>1077.1006</v>
+        <v>1584.5986</v>
       </c>
       <c r="AP125">
-        <v>1933.8516</v>
+        <v>1082.1514</v>
       </c>
       <c r="AQ125">
-        <v>334.99901999999997</v>
+        <v>2815.0488</v>
       </c>
       <c r="AR125">
-        <v>1866.1982</v>
+        <v>1337.9004</v>
       </c>
       <c r="AS125">
-        <v>850.49805000000003</v>
+        <v>717.0498</v>
       </c>
       <c r="AT125">
-        <v>943.15039999999999</v>
+        <v>1494.2988</v>
       </c>
       <c r="AU125">
-        <v>207.40038999999999</v>
+        <v>783.49900000000002</v>
       </c>
       <c r="AV125">
-        <v>346.40039999999999</v>
+        <v>674.85155999999995</v>
       </c>
       <c r="AW125">
-        <v>2403.75</v>
+        <v>616.40039999999999</v>
       </c>
       <c r="AX125">
-        <v>415.34863000000001</v>
+        <v>676.79880000000003</v>
       </c>
       <c r="AY125">
-        <v>2277.3506000000002</v>
+        <v>1747.0518</v>
       </c>
       <c r="AZ125">
-        <v>1338.001</v>
+        <v>973.65137000000004</v>
       </c>
       <c r="BA125">
-        <v>369.15136999999999</v>
+        <v>685.20119999999997</v>
       </c>
       <c r="BB125">
-        <v>634.44920000000002</v>
+        <v>597.80079999999998</v>
       </c>
       <c r="BC125">
-        <v>519.34766000000002</v>
+        <v>568.84960000000001</v>
       </c>
       <c r="BD125">
-        <v>1407.9014</v>
+        <v>1048.3516</v>
       </c>
       <c r="BE125">
-        <v>1288.4004</v>
+        <v>981.05079999999998</v>
       </c>
       <c r="BF125">
-        <v>1193.248</v>
+        <v>763.45119999999997</v>
       </c>
       <c r="BG125">
-        <v>2304.2460000000001</v>
+        <v>2229.5</v>
       </c>
       <c r="BH125">
-        <v>1006.3515599999999</v>
+        <v>792.59766000000002</v>
       </c>
       <c r="BI125">
-        <v>1106.1504</v>
+        <v>3045.3008</v>
       </c>
       <c r="BJ125">
-        <v>819.64844000000005</v>
+        <v>620.69727</v>
       </c>
       <c r="BK125">
-        <v>876.69920000000002</v>
+        <v>3125.8047000000001</v>
       </c>
       <c r="BL125">
-        <v>690.40039999999999</v>
+        <v>869.34960000000001</v>
       </c>
       <c r="BM125">
-        <v>1298.9004</v>
+        <v>1068.3965000000001</v>
       </c>
       <c r="BN125">
-        <v>441.19727</v>
+        <v>0</v>
       </c>
       <c r="BO125">
-        <v>1485.0527</v>
+        <v>298.80077999999997</v>
       </c>
       <c r="BP125">
-        <v>707.64453000000003</v>
+        <v>285.89843999999999</v>
       </c>
       <c r="BQ125">
-        <v>535.49805000000003</v>
+        <v>29.648437999999999</v>
       </c>
       <c r="BR125">
-        <v>834.99805000000003</v>
+        <v>423.09960000000001</v>
       </c>
       <c r="BS125">
-        <v>1014.04785</v>
+        <v>741.45119999999997</v>
       </c>
       <c r="BT125">
-        <v>2189.6006000000002</v>
+        <v>2462.8516</v>
       </c>
       <c r="BU125">
-        <v>890.15137000000004</v>
+        <v>1035.499</v>
       </c>
       <c r="BV125">
-        <v>800.84960000000001</v>
+        <v>902.79690000000005</v>
       </c>
       <c r="BW125">
-        <v>403.90039999999999</v>
+        <v>319.99804999999998</v>
       </c>
       <c r="BX125">
-        <v>622.90430000000003</v>
+        <v>384.95116999999999</v>
       </c>
       <c r="BY125">
-        <v>786.00194999999997</v>
+        <v>1398.752</v>
       </c>
       <c r="BZ125">
-        <v>580.20119999999997</v>
+        <v>838.34960000000001</v>
       </c>
       <c r="CA125">
-        <v>1851.1523</v>
+        <v>1117.0488</v>
       </c>
       <c r="CB125">
-        <v>538.49805000000003</v>
+        <v>983.00194999999997</v>
       </c>
       <c r="CC125">
-        <v>929.70119999999997</v>
+        <v>2009.25</v>
       </c>
       <c r="CD125">
-        <v>1001.25</v>
+        <v>737.84766000000002</v>
       </c>
       <c r="CE125">
-        <v>1644.5508</v>
+        <v>1935.0527</v>
       </c>
       <c r="CF125">
-        <v>1319.5</v>
+        <v>1251.7988</v>
       </c>
       <c r="CG125">
-        <v>1378.5996</v>
+        <v>1161.1034999999999</v>
       </c>
       <c r="CH125">
-        <v>847.40039999999999</v>
+        <v>789.30273</v>
       </c>
       <c r="CI125">
-        <v>354.70116999999999</v>
+        <v>440.69727</v>
       </c>
       <c r="CJ125">
-        <v>676.00194999999997</v>
+        <v>490.39648</v>
       </c>
       <c r="CK125">
-        <v>1054.5996</v>
+        <v>953.09960000000001</v>
       </c>
       <c r="CL125">
-        <v>784.20309999999995</v>
+        <v>1151.8965000000001</v>
       </c>
       <c r="CM125">
-        <v>784.59766000000002</v>
+        <v>1054.5</v>
       </c>
       <c r="CN125">
-        <v>649.29880000000003</v>
+        <v>1068.5</v>
       </c>
       <c r="CO125">
-        <v>1612.1992</v>
+        <v>841.39649999999995</v>
       </c>
       <c r="CP125">
-        <v>367.10352</v>
+        <v>1516.4961000000001</v>
       </c>
       <c r="CQ125">
-        <v>1613.1992</v>
+        <v>1817.7988</v>
       </c>
       <c r="CR125">
-        <v>1417.002</v>
+        <v>3080.7031000000002</v>
       </c>
       <c r="CS125">
-        <v>1024.9023</v>
+        <v>1961.3984</v>
       </c>
       <c r="CT125">
-        <v>1167.8008</v>
+        <v>1419.498</v>
       </c>
       <c r="CU125">
-        <v>1069</v>
+        <v>1652.6992</v>
       </c>
       <c r="CV125">
-        <v>1046.7012</v>
+        <v>1259.9004</v>
       </c>
       <c r="CW125">
-        <v>1725.5</v>
+        <v>843.99609999999996</v>
       </c>
       <c r="CX125">
-        <v>1163.4023</v>
+        <v>778.69727</v>
       </c>
       <c r="CY125">
-        <v>2505.9531000000002</v>
+        <v>2246.6504</v>
       </c>
       <c r="CZ125">
-        <v>1213.5</v>
+        <v>1378.3516</v>
       </c>
       <c r="DA125">
-        <v>901.20119999999997</v>
+        <v>309.05077999999997</v>
       </c>
       <c r="DB125">
-        <v>2348.1464999999998</v>
+        <v>2479.3535000000002</v>
       </c>
       <c r="DC125">
-        <v>1305.4492</v>
+        <v>1950.3477</v>
       </c>
       <c r="DD125">
-        <v>594.19529999999997</v>
+        <v>498.65039999999999</v>
       </c>
     </row>
     <row r="126" spans="1:108" x14ac:dyDescent="0.3">
@@ -40842,305 +40827,305 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" si="9"/>
-        <v>-97765.276379999996</v>
+        <v>-81496.66002000001</v>
       </c>
       <c r="I126" s="2">
         <f>SUM(D126,D129,D132,D135)</f>
-        <v>-177958.32076919999</v>
+        <v>-152385.13950709999</v>
       </c>
       <c r="K126">
-        <v>-1401.4473</v>
+        <v>-1221.8984</v>
       </c>
       <c r="L126">
-        <v>-854.89940000000001</v>
+        <v>-388.09863000000001</v>
       </c>
       <c r="M126">
-        <v>-1909.249</v>
+        <v>-817.30175999999994</v>
       </c>
       <c r="N126">
-        <v>-826.84766000000002</v>
+        <v>-239.34863000000001</v>
       </c>
       <c r="O126">
-        <v>-787.94920000000002</v>
+        <v>-1447.7988</v>
       </c>
       <c r="P126">
-        <v>-758.14940000000001</v>
+        <v>-405.7002</v>
       </c>
       <c r="Q126">
-        <v>-955.35059999999999</v>
+        <v>-931.39844000000005</v>
       </c>
       <c r="R126">
-        <v>-305.4502</v>
+        <v>-904.95119999999997</v>
       </c>
       <c r="S126">
-        <v>-1275.8984</v>
+        <v>-433.49901999999997</v>
       </c>
       <c r="T126">
-        <v>-657.64746000000002</v>
+        <v>-847</v>
       </c>
       <c r="U126">
-        <v>-537.89940000000001</v>
+        <v>-508.85059999999999</v>
       </c>
       <c r="V126">
-        <v>-1042.3501000000001</v>
+        <v>-805.55029999999999</v>
       </c>
       <c r="W126">
-        <v>-439.05126999999999</v>
+        <v>-1166.4507000000001</v>
       </c>
       <c r="X126">
-        <v>-372.35059999999999</v>
+        <v>-1453.749</v>
       </c>
       <c r="Y126">
-        <v>-1102.8516</v>
+        <v>-915.35059999999999</v>
       </c>
       <c r="Z126">
-        <v>-1064.2988</v>
+        <v>-989.19920000000002</v>
       </c>
       <c r="AA126">
-        <v>-1323.0508</v>
+        <v>-572.70119999999997</v>
       </c>
       <c r="AB126">
-        <v>-1238.5967000000001</v>
+        <v>-540.90039999999999</v>
       </c>
       <c r="AC126">
-        <v>-427.00195000000002</v>
+        <v>-576.2998</v>
       </c>
       <c r="AD126">
-        <v>-887.2002</v>
+        <v>-292.50098000000003</v>
       </c>
       <c r="AE126">
-        <v>-433.40136999999999</v>
+        <v>-496.25098000000003</v>
       </c>
       <c r="AF126">
-        <v>-1044.4473</v>
+        <v>-193.2998</v>
       </c>
       <c r="AG126">
-        <v>-1178.5518</v>
+        <v>-706.80175999999994</v>
       </c>
       <c r="AH126">
-        <v>-481.80077999999997</v>
+        <v>-358.39940000000001</v>
       </c>
       <c r="AI126">
-        <v>-784.2998</v>
+        <v>-602.75194999999997</v>
       </c>
       <c r="AJ126">
-        <v>-304.00098000000003</v>
+        <v>-307.85059999999999</v>
       </c>
       <c r="AK126">
-        <v>-712.7998</v>
+        <v>-727.54880000000003</v>
       </c>
       <c r="AL126">
-        <v>-677.44920000000002</v>
+        <v>-799.85155999999995</v>
       </c>
       <c r="AM126">
-        <v>-1301.7979</v>
+        <v>-1549.749</v>
       </c>
       <c r="AN126">
-        <v>-354.65039999999999</v>
+        <v>-1155.8994</v>
       </c>
       <c r="AO126">
-        <v>-2107.3485999999998</v>
+        <v>-987.7002</v>
       </c>
       <c r="AP126">
-        <v>-1272.3984</v>
+        <v>-1454.5479</v>
       </c>
       <c r="AQ126">
-        <v>-1904.6992</v>
+        <v>-1476.1006</v>
       </c>
       <c r="AR126">
-        <v>-698.2998</v>
+        <v>-819.75</v>
       </c>
       <c r="AS126">
-        <v>-874.9502</v>
+        <v>-1750.8008</v>
       </c>
       <c r="AT126">
-        <v>-1079.6006</v>
+        <v>-686.15137000000004</v>
       </c>
       <c r="AU126">
-        <v>-1266.5996</v>
+        <v>-754.00099999999998</v>
       </c>
       <c r="AV126">
-        <v>-577.5</v>
+        <v>-434.7998</v>
       </c>
       <c r="AW126">
-        <v>-365.84863000000001</v>
+        <v>-871.60155999999995</v>
       </c>
       <c r="AX126">
-        <v>-967.35155999999995</v>
+        <v>-951.80079999999998</v>
       </c>
       <c r="AY126">
-        <v>-752.74900000000002</v>
+        <v>-775.0498</v>
       </c>
       <c r="AZ126">
-        <v>-1376.749</v>
+        <v>-437.94922000000003</v>
       </c>
       <c r="BA126">
-        <v>-1337.1514</v>
+        <v>-1117.1494</v>
       </c>
       <c r="BB126">
-        <v>-1069.3008</v>
+        <v>-372.5</v>
       </c>
       <c r="BC126">
-        <v>-411.5</v>
+        <v>-583.35059999999999</v>
       </c>
       <c r="BD126">
-        <v>-654.19824000000006</v>
+        <v>-667.55175999999994</v>
       </c>
       <c r="BE126">
-        <v>-362</v>
+        <v>-300.54883000000001</v>
       </c>
       <c r="BF126">
-        <v>-1266.6992</v>
+        <v>-935.54880000000003</v>
       </c>
       <c r="BG126">
-        <v>-1117.8516</v>
+        <v>-958.65039999999999</v>
       </c>
       <c r="BH126">
-        <v>-2091.1992</v>
+        <v>-921.00390000000004</v>
       </c>
       <c r="BI126">
-        <v>-1191.5508</v>
+        <v>-644.84960000000001</v>
       </c>
       <c r="BJ126">
-        <v>-1453.4961000000001</v>
+        <v>-824.69727</v>
       </c>
       <c r="BK126">
-        <v>-936.05273</v>
+        <v>-319.85352</v>
       </c>
       <c r="BL126">
-        <v>-1712.9061999999999</v>
+        <v>-1584.4023</v>
       </c>
       <c r="BM126">
-        <v>-602.24805000000003</v>
+        <v>-819.85155999999995</v>
       </c>
       <c r="BN126">
-        <v>-1555.5508</v>
+        <v>-692.80079999999998</v>
       </c>
       <c r="BO126">
-        <v>-1650.4521</v>
+        <v>-1665.0488</v>
       </c>
       <c r="BP126">
-        <v>-849.50390000000004</v>
+        <v>-245.40234000000001</v>
       </c>
       <c r="BQ126">
-        <v>-666.55079999999998</v>
+        <v>-770.94920000000002</v>
       </c>
       <c r="BR126">
-        <v>-935.55273</v>
+        <v>-531.89844000000005</v>
       </c>
       <c r="BS126">
-        <v>-1102.6992</v>
+        <v>-1304.5479</v>
       </c>
       <c r="BT126">
-        <v>-592.30079999999998</v>
+        <v>-734.9502</v>
       </c>
       <c r="BU126">
-        <v>-558.79880000000003</v>
+        <v>-715.75</v>
       </c>
       <c r="BV126">
-        <v>-692.74710000000005</v>
+        <v>-1093.0498</v>
       </c>
       <c r="BW126">
-        <v>-1508.6006</v>
+        <v>-1152.2548999999999</v>
       </c>
       <c r="BX126">
-        <v>-1858.5469000000001</v>
+        <v>-1035.9042999999999</v>
       </c>
       <c r="BY126">
-        <v>-476.89843999999999</v>
+        <v>-355.55273</v>
       </c>
       <c r="BZ126">
-        <v>-1020.15234</v>
+        <v>-1123.498</v>
       </c>
       <c r="CA126">
-        <v>-1095.3496</v>
+        <v>-1212.9023</v>
       </c>
       <c r="CB126">
-        <v>-1652.4061999999999</v>
+        <v>-1234.7012</v>
       </c>
       <c r="CC126">
-        <v>-1269.7050999999999</v>
+        <v>-602.44920000000002</v>
       </c>
       <c r="CD126">
-        <v>-601.34569999999997</v>
+        <v>-881.10155999999995</v>
       </c>
       <c r="CE126">
-        <v>-426.90039999999999</v>
+        <v>-497.39843999999999</v>
       </c>
       <c r="CF126">
-        <v>-767.5</v>
+        <v>-408.30077999999997</v>
       </c>
       <c r="CG126">
-        <v>-573.29690000000005</v>
+        <v>-636.79880000000003</v>
       </c>
       <c r="CH126">
-        <v>-618.20119999999997</v>
+        <v>-324.70116999999999</v>
       </c>
       <c r="CI126">
-        <v>-929.69529999999997</v>
+        <v>-424.49804999999998</v>
       </c>
       <c r="CJ126">
-        <v>-838.89844000000005</v>
+        <v>-406.69727</v>
       </c>
       <c r="CK126">
-        <v>-456.99804999999998</v>
+        <v>-531.79880000000003</v>
       </c>
       <c r="CL126">
-        <v>-1027.2012</v>
+        <v>-710.69529999999997</v>
       </c>
       <c r="CM126">
-        <v>-1148.2030999999999</v>
+        <v>-1070.5</v>
       </c>
       <c r="CN126">
-        <v>-2336.1055000000001</v>
+        <v>-1411.2030999999999</v>
       </c>
       <c r="CO126">
-        <v>-702.60546999999997</v>
+        <v>-544.59960000000001</v>
       </c>
       <c r="CP126">
-        <v>-1405</v>
+        <v>-821</v>
       </c>
       <c r="CQ126">
-        <v>-590.10155999999995</v>
+        <v>-629.60350000000005</v>
       </c>
       <c r="CR126">
-        <v>-2728.4004</v>
+        <v>-1540.2012</v>
       </c>
       <c r="CS126">
-        <v>-1104.8008</v>
+        <v>-1113.4004</v>
       </c>
       <c r="CT126">
-        <v>-705.30079999999998</v>
+        <v>-962.39844000000005</v>
       </c>
       <c r="CU126">
-        <v>-991.80079999999998</v>
+        <v>-1098.1992</v>
       </c>
       <c r="CV126">
-        <v>-878.80664000000002</v>
+        <v>-619.50390000000004</v>
       </c>
       <c r="CW126">
-        <v>-561.5</v>
+        <v>-703.49609999999996</v>
       </c>
       <c r="CX126">
-        <v>-761.79880000000003</v>
+        <v>-969.20119999999997</v>
       </c>
       <c r="CY126">
-        <v>-238.45116999999999</v>
+        <v>-1445.4961000000001</v>
       </c>
       <c r="CZ126">
-        <v>-2607.9531000000002</v>
+        <v>-721.89649999999995</v>
       </c>
       <c r="DA126">
-        <v>-446.10156000000001</v>
+        <v>-859.09960000000001</v>
       </c>
       <c r="DB126">
-        <v>-1189.9473</v>
+        <v>-1703.1973</v>
       </c>
       <c r="DC126">
-        <v>-1049.9023</v>
+        <v>-1112.0488</v>
       </c>
       <c r="DD126">
-        <v>-1701.6561999999999</v>
+        <v>-1070.8027</v>
       </c>
     </row>
     <row r="127" spans="1:108" x14ac:dyDescent="0.3">
@@ -41155,7 +41140,7 @@
       </c>
       <c r="D127" s="2">
         <f t="shared" si="9"/>
-        <v>254.62552200000027</v>
+        <v>16383.023197999999</v>
       </c>
       <c r="E127">
         <f>COUNT(K127:DD127)</f>
@@ -41163,7 +41148,7 @@
       </c>
       <c r="F127">
         <f>COUNTIF(K127:DD127,"&gt;0")</f>
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G127">
         <f>SUM(E127,E130,E133,E136)</f>
@@ -41171,309 +41156,309 @@
       </c>
       <c r="H127">
         <f>SUM(F127,F130,F133,F136)</f>
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I127" s="2">
         <f>SUM(D127,D130,D133,D136)</f>
-        <v>14501.434409240002</v>
+        <v>23720.609532899995</v>
       </c>
       <c r="J127" s="4">
         <f>100 *H127/G127</f>
-        <v>46.173469387755105</v>
+        <v>46.428571428571431</v>
       </c>
       <c r="K127">
-        <v>-765.34766000000002</v>
+        <v>200.80176</v>
       </c>
       <c r="L127">
-        <v>-12.498047</v>
+        <v>-92.297849999999997</v>
       </c>
       <c r="M127">
-        <v>-1059.0967000000001</v>
+        <v>-216.10059000000001</v>
       </c>
       <c r="N127">
-        <v>-427.59863000000001</v>
+        <v>661.45214999999996</v>
       </c>
       <c r="O127">
-        <v>51.400390000000002</v>
+        <v>-1200.9502</v>
       </c>
       <c r="P127">
-        <v>-316.55176</v>
+        <v>-22.652343999999999</v>
       </c>
       <c r="Q127">
-        <v>-287.7998</v>
+        <v>-890.04880000000003</v>
       </c>
       <c r="R127">
-        <v>1309.7002</v>
+        <v>-194.60059000000001</v>
       </c>
       <c r="S127">
-        <v>-348.64843999999999</v>
+        <v>886.25390000000004</v>
       </c>
       <c r="T127">
-        <v>538.25390000000004</v>
+        <v>943.5498</v>
       </c>
       <c r="U127">
-        <v>622.80175999999994</v>
+        <v>-172.0498</v>
       </c>
       <c r="V127">
-        <v>-219.84961000000001</v>
+        <v>-343.75</v>
       </c>
       <c r="W127">
-        <v>789.09813999999994</v>
+        <v>-375.50049999999999</v>
       </c>
       <c r="X127">
-        <v>1034.248</v>
+        <v>-1237.3486</v>
       </c>
       <c r="Y127">
-        <v>-467.25195000000002</v>
+        <v>76.59863</v>
       </c>
       <c r="Z127">
-        <v>-655.54880000000003</v>
+        <v>-898.04880000000003</v>
       </c>
       <c r="AA127">
-        <v>-634.45119999999997</v>
+        <v>406.40039999999999</v>
       </c>
       <c r="AB127">
-        <v>-707.84766000000002</v>
+        <v>-120.45215</v>
       </c>
       <c r="AC127">
-        <v>220.19824</v>
+        <v>-303.89940000000001</v>
       </c>
       <c r="AD127">
-        <v>-592.2998</v>
+        <v>160.79883000000001</v>
       </c>
       <c r="AE127">
-        <v>723.09862999999996</v>
+        <v>-253.55078</v>
       </c>
       <c r="AF127">
-        <v>-412.49610000000001</v>
+        <v>491.65039999999999</v>
       </c>
       <c r="AG127">
-        <v>-704.00099999999998</v>
+        <v>318.79590000000002</v>
       </c>
       <c r="AH127">
-        <v>-25.900390000000002</v>
+        <v>8.25</v>
       </c>
       <c r="AI127">
-        <v>-118.40039</v>
+        <v>-497.60253999999998</v>
       </c>
       <c r="AJ127">
-        <v>361.39746000000002</v>
+        <v>-23.950195000000001</v>
       </c>
       <c r="AK127">
-        <v>223</v>
+        <v>141.90332000000001</v>
       </c>
       <c r="AL127">
-        <v>630.00289999999995</v>
+        <v>27.397459999999999</v>
       </c>
       <c r="AM127">
-        <v>-472.69824</v>
+        <v>-82.451170000000005</v>
       </c>
       <c r="AN127">
-        <v>613.94727</v>
+        <v>-1076.0996</v>
       </c>
       <c r="AO127">
-        <v>-1030.248</v>
+        <v>596.89844000000005</v>
       </c>
       <c r="AP127">
-        <v>661.45309999999995</v>
+        <v>-372.39648</v>
       </c>
       <c r="AQ127">
-        <v>-1569.7002</v>
+        <v>1338.9482</v>
       </c>
       <c r="AR127">
-        <v>1167.8984</v>
+        <v>518.15039999999999</v>
       </c>
       <c r="AS127">
-        <v>-24.452148000000001</v>
+        <v>-1033.751</v>
       </c>
       <c r="AT127">
-        <v>-136.4502</v>
+        <v>808.14746000000002</v>
       </c>
       <c r="AU127">
-        <v>-1059.1992</v>
+        <v>29.498047</v>
       </c>
       <c r="AV127">
-        <v>-231.09961000000001</v>
+        <v>240.05176</v>
       </c>
       <c r="AW127">
-        <v>2037.9014</v>
+        <v>-255.20116999999999</v>
       </c>
       <c r="AX127">
-        <v>-552.00289999999995</v>
+        <v>-275.00195000000002</v>
       </c>
       <c r="AY127">
-        <v>1524.6016</v>
+        <v>972.00194999999997</v>
       </c>
       <c r="AZ127">
-        <v>-38.748047</v>
+        <v>535.70214999999996</v>
       </c>
       <c r="BA127">
-        <v>-968</v>
+        <v>-431.94824</v>
       </c>
       <c r="BB127">
-        <v>-434.85156000000001</v>
+        <v>225.30078</v>
       </c>
       <c r="BC127">
-        <v>107.84766</v>
+        <v>-14.500977000000001</v>
       </c>
       <c r="BD127">
-        <v>753.70309999999995</v>
+        <v>380.7998</v>
       </c>
       <c r="BE127">
-        <v>926.40039999999999</v>
+        <v>680.50194999999997</v>
       </c>
       <c r="BF127">
-        <v>-73.451170000000005</v>
+        <v>-172.09765999999999</v>
       </c>
       <c r="BG127">
-        <v>1186.3945000000001</v>
+        <v>1270.8496</v>
       </c>
       <c r="BH127">
-        <v>-1084.8477</v>
+        <v>-128.40625</v>
       </c>
       <c r="BI127">
-        <v>-85.400390000000002</v>
+        <v>2400.4512</v>
       </c>
       <c r="BJ127">
-        <v>-633.84766000000002</v>
+        <v>-204</v>
       </c>
       <c r="BK127">
-        <v>-59.353515999999999</v>
+        <v>2805.9512</v>
       </c>
       <c r="BL127">
-        <v>-1022.50586</v>
+        <v>-715.05273</v>
       </c>
       <c r="BM127">
-        <v>696.65233999999998</v>
+        <v>248.54491999999999</v>
       </c>
       <c r="BN127">
-        <v>-1114.3534999999999</v>
+        <v>-692.80079999999998</v>
       </c>
       <c r="BO127">
-        <v>-165.39940999999999</v>
+        <v>-1366.248</v>
       </c>
       <c r="BP127">
-        <v>-141.85937999999999</v>
+        <v>40.496093999999999</v>
       </c>
       <c r="BQ127">
-        <v>-131.05273</v>
+        <v>-741.30079999999998</v>
       </c>
       <c r="BR127">
-        <v>-100.55468999999999</v>
+        <v>-108.79883</v>
       </c>
       <c r="BS127">
-        <v>-88.65137</v>
+        <v>-563.09670000000006</v>
       </c>
       <c r="BT127">
-        <v>1597.2998</v>
+        <v>1727.9014</v>
       </c>
       <c r="BU127">
-        <v>331.35253999999998</v>
+        <v>319.74901999999997</v>
       </c>
       <c r="BV127">
-        <v>108.10254</v>
+        <v>-190.25292999999999</v>
       </c>
       <c r="BW127">
-        <v>-1104.7002</v>
+        <v>-832.25684000000001</v>
       </c>
       <c r="BX127">
-        <v>-1235.6425999999999</v>
+        <v>-650.95309999999995</v>
       </c>
       <c r="BY127">
-        <v>309.10352</v>
+        <v>1043.1992</v>
       </c>
       <c r="BZ127">
-        <v>-439.95116999999999</v>
+        <v>-285.14843999999999</v>
       </c>
       <c r="CA127">
-        <v>755.80273</v>
+        <v>-95.853515999999999</v>
       </c>
       <c r="CB127">
-        <v>-1113.9082000000001</v>
+        <v>-251.69922</v>
       </c>
       <c r="CC127">
-        <v>-340.00389999999999</v>
+        <v>1406.8008</v>
       </c>
       <c r="CD127">
-        <v>399.90429999999998</v>
+        <v>-143.25389999999999</v>
       </c>
       <c r="CE127">
-        <v>1217.6504</v>
+        <v>1437.6542999999999</v>
       </c>
       <c r="CF127">
-        <v>552</v>
+        <v>843.49805000000003</v>
       </c>
       <c r="CG127">
-        <v>805.30273</v>
+        <v>524.30470000000003</v>
       </c>
       <c r="CH127">
-        <v>229.19922</v>
+        <v>464.60156000000001</v>
       </c>
       <c r="CI127">
-        <v>-574.99414000000002</v>
+        <v>16.199218999999999</v>
       </c>
       <c r="CJ127">
-        <v>-162.89648</v>
+        <v>83.699219999999997</v>
       </c>
       <c r="CK127">
-        <v>597.60155999999995</v>
+        <v>421.30077999999997</v>
       </c>
       <c r="CL127">
-        <v>-242.99805000000001</v>
+        <v>441.20116999999999</v>
       </c>
       <c r="CM127">
-        <v>-363.60547000000003</v>
+        <v>-16</v>
       </c>
       <c r="CN127">
-        <v>-1686.8065999999999</v>
+        <v>-342.70312000000001</v>
       </c>
       <c r="CO127">
-        <v>909.59375</v>
+        <v>296.79687999999999</v>
       </c>
       <c r="CP127">
-        <v>-1037.8965000000001</v>
+        <v>695.49609999999996</v>
       </c>
       <c r="CQ127">
-        <v>1023.09766</v>
+        <v>1188.1953000000001</v>
       </c>
       <c r="CR127">
-        <v>-1311.3984</v>
+        <v>1540.502</v>
       </c>
       <c r="CS127">
-        <v>-79.898439999999994</v>
+        <v>847.99805000000003</v>
       </c>
       <c r="CT127">
-        <v>462.5</v>
+        <v>457.09960000000001</v>
       </c>
       <c r="CU127">
-        <v>77.199219999999997</v>
+        <v>554.5</v>
       </c>
       <c r="CV127">
-        <v>167.89453</v>
+        <v>640.39649999999995</v>
       </c>
       <c r="CW127">
-        <v>1164</v>
+        <v>140.5</v>
       </c>
       <c r="CX127">
-        <v>401.60352</v>
+        <v>-190.50389999999999</v>
       </c>
       <c r="CY127">
-        <v>2267.502</v>
+        <v>801.15430000000003</v>
       </c>
       <c r="CZ127">
-        <v>-1394.4530999999999</v>
+        <v>656.45510000000002</v>
       </c>
       <c r="DA127">
-        <v>455.09960000000001</v>
+        <v>-550.04880000000003</v>
       </c>
       <c r="DB127">
-        <v>1158.1992</v>
+        <v>776.15625</v>
       </c>
       <c r="DC127">
-        <v>255.54687999999999</v>
+        <v>838.29880000000003</v>
       </c>
       <c r="DD127">
-        <v>-1107.4609</v>
+        <v>-572.15233999999998</v>
       </c>
     </row>
     <row r="128" spans="1:108" x14ac:dyDescent="0.3">
@@ -41488,301 +41473,301 @@
       </c>
       <c r="D128" s="2">
         <f t="shared" si="9"/>
-        <v>44883.20812000001</v>
+        <v>36072.503772000004</v>
       </c>
       <c r="K128">
-        <v>668.84960000000001</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>431.25</v>
+        <v>0</v>
       </c>
       <c r="M128">
-        <v>969.85059999999999</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>93.5</v>
+        <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>1109.3506</v>
       </c>
       <c r="P128">
-        <v>49.049804999999999</v>
+        <v>8.25</v>
       </c>
       <c r="Q128">
-        <v>123.05078</v>
+        <v>0</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
       <c r="S128">
-        <v>591.40039999999999</v>
+        <v>0</v>
       </c>
       <c r="T128">
         <v>0</v>
       </c>
       <c r="U128">
-        <v>6.3505859999999998</v>
+        <v>1136.2998</v>
       </c>
       <c r="V128">
-        <v>0</v>
+        <v>811.90039999999999</v>
       </c>
       <c r="W128">
-        <v>808.09960000000001</v>
+        <v>0</v>
       </c>
       <c r="X128">
-        <v>710.9502</v>
+        <v>235.10059000000001</v>
       </c>
       <c r="Y128">
-        <v>193.59961000000001</v>
+        <v>0</v>
       </c>
       <c r="Z128">
-        <v>14.149414</v>
+        <v>168.35059000000001</v>
       </c>
       <c r="AA128">
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>317.59960000000001</v>
+        <v>87.599609999999998</v>
       </c>
       <c r="AC128">
-        <v>691.40039999999999</v>
+        <v>1224.0498</v>
       </c>
       <c r="AD128">
-        <v>219.05078</v>
+        <v>207.2002</v>
       </c>
       <c r="AE128">
-        <v>151.84961000000001</v>
+        <v>1728.25</v>
       </c>
       <c r="AF128">
-        <v>120.20019499999999</v>
+        <v>0</v>
       </c>
       <c r="AG128">
-        <v>325.79883000000001</v>
+        <v>62.000976999999999</v>
       </c>
       <c r="AH128">
-        <v>648.30079999999998</v>
+        <v>826.9502</v>
       </c>
       <c r="AI128">
-        <v>255.40038999999999</v>
+        <v>243.90038999999999</v>
       </c>
       <c r="AJ128">
-        <v>86.450194999999994</v>
+        <v>385.7002</v>
       </c>
       <c r="AK128">
-        <v>662.00099999999998</v>
+        <v>661.0498</v>
       </c>
       <c r="AL128">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="AM128">
-        <v>59.899414</v>
+        <v>286.89940000000001</v>
       </c>
       <c r="AN128">
-        <v>235.14940999999999</v>
+        <v>0</v>
       </c>
       <c r="AO128">
-        <v>0</v>
+        <v>47.150390000000002</v>
       </c>
       <c r="AP128">
         <v>0</v>
       </c>
       <c r="AQ128">
-        <v>1539.8496</v>
+        <v>0</v>
       </c>
       <c r="AR128">
-        <v>1185.9004</v>
+        <v>971.7002</v>
       </c>
       <c r="AS128">
-        <v>331.24901999999997</v>
+        <v>0</v>
       </c>
       <c r="AT128">
-        <v>426.59960000000001</v>
+        <v>336.2998</v>
       </c>
       <c r="AU128">
-        <v>164.5</v>
+        <v>0</v>
       </c>
       <c r="AV128">
-        <v>628.75</v>
+        <v>439.15039999999999</v>
       </c>
       <c r="AW128">
         <v>0</v>
       </c>
       <c r="AX128">
-        <v>434.9502</v>
+        <v>39.200195000000001</v>
       </c>
       <c r="AY128">
-        <v>1912.25</v>
+        <v>2128.5</v>
       </c>
       <c r="AZ128">
-        <v>0</v>
+        <v>183.64940999999999</v>
       </c>
       <c r="BA128">
-        <v>727.10059999999999</v>
+        <v>0</v>
       </c>
       <c r="BB128">
-        <v>57.650390000000002</v>
+        <v>244</v>
       </c>
       <c r="BC128">
-        <v>826.75</v>
+        <v>0</v>
       </c>
       <c r="BD128">
-        <v>108.15039</v>
+        <v>1289.3994</v>
       </c>
       <c r="BE128">
         <v>0</v>
       </c>
       <c r="BF128">
-        <v>1866.8008</v>
+        <v>2387.6523000000002</v>
       </c>
       <c r="BG128">
-        <v>526.34960000000001</v>
+        <v>1659.3496</v>
       </c>
       <c r="BH128">
-        <v>548.34960000000001</v>
+        <v>0</v>
       </c>
       <c r="BI128">
-        <v>10.900391000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ128">
-        <v>324.44922000000003</v>
+        <v>982.29880000000003</v>
       </c>
       <c r="BK128">
-        <v>301.40039999999999</v>
+        <v>0</v>
       </c>
       <c r="BL128">
-        <v>1236.3516</v>
+        <v>912</v>
       </c>
       <c r="BM128">
-        <v>195.79883000000001</v>
+        <v>21.599609999999998</v>
       </c>
       <c r="BN128">
-        <v>558.60155999999995</v>
+        <v>0</v>
       </c>
       <c r="BO128">
         <v>0</v>
       </c>
       <c r="BP128">
-        <v>472.59960000000001</v>
+        <v>0</v>
       </c>
       <c r="BQ128">
-        <v>0</v>
+        <v>549.15039999999999</v>
       </c>
       <c r="BR128">
-        <v>670.75</v>
+        <v>832.04880000000003</v>
       </c>
       <c r="BS128">
-        <v>0</v>
+        <v>1070.4502</v>
       </c>
       <c r="BT128">
-        <v>0</v>
+        <v>1383.2002</v>
       </c>
       <c r="BU128">
-        <v>2167.9004</v>
+        <v>0</v>
       </c>
       <c r="BV128">
-        <v>0</v>
+        <v>971.20119999999997</v>
       </c>
       <c r="BW128">
-        <v>1060.8008</v>
+        <v>79.951170000000005</v>
       </c>
       <c r="BX128">
-        <v>1094.5</v>
+        <v>0</v>
       </c>
       <c r="BY128">
-        <v>0</v>
+        <v>397.84960000000001</v>
       </c>
       <c r="BZ128">
-        <v>1268.2012</v>
+        <v>434.15039999999999</v>
       </c>
       <c r="CA128">
-        <v>1141.2012</v>
+        <v>0</v>
       </c>
       <c r="CB128">
-        <v>677.09960000000001</v>
+        <v>558.75194999999997</v>
       </c>
       <c r="CC128">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="CD128">
-        <v>215.75</v>
+        <v>308.34960000000001</v>
       </c>
       <c r="CE128">
-        <v>281.60156000000001</v>
+        <v>0</v>
       </c>
       <c r="CF128">
         <v>0</v>
       </c>
       <c r="CG128">
-        <v>1589.7012</v>
+        <v>342.40039999999999</v>
       </c>
       <c r="CH128">
-        <v>595.90039999999999</v>
+        <v>397.5</v>
       </c>
       <c r="CI128">
-        <v>1101.4004</v>
+        <v>48.599609999999998</v>
       </c>
       <c r="CJ128">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="CK128">
         <v>0</v>
       </c>
       <c r="CL128">
-        <v>1522.9004</v>
+        <v>1402.2988</v>
       </c>
       <c r="CM128">
-        <v>63.900390000000002</v>
+        <v>0</v>
       </c>
       <c r="CN128">
-        <v>49.900390000000002</v>
+        <v>938.19920000000002</v>
       </c>
       <c r="CO128">
-        <v>1618.2988</v>
+        <v>0</v>
       </c>
       <c r="CP128">
-        <v>68.099609999999998</v>
+        <v>438.79883000000001</v>
       </c>
       <c r="CQ128">
-        <v>149.90038999999999</v>
+        <v>0</v>
       </c>
       <c r="CR128">
-        <v>988.59960000000001</v>
+        <v>1567.5</v>
       </c>
       <c r="CS128">
-        <v>889.50194999999997</v>
+        <v>238.40038999999999</v>
       </c>
       <c r="CT128">
-        <v>0</v>
+        <v>91.400390000000002</v>
       </c>
       <c r="CU128">
-        <v>864.69920000000002</v>
+        <v>1171.2988</v>
       </c>
       <c r="CV128">
-        <v>290.59960000000001</v>
+        <v>658.40233999999998</v>
       </c>
       <c r="CW128">
-        <v>245.90038999999999</v>
+        <v>0</v>
       </c>
       <c r="CX128">
-        <v>826.59960000000001</v>
+        <v>0</v>
       </c>
       <c r="CY128">
         <v>0</v>
       </c>
       <c r="CZ128">
-        <v>126.19922</v>
+        <v>0</v>
       </c>
       <c r="DA128">
         <v>0</v>
       </c>
       <c r="DB128">
-        <v>551.34960000000001</v>
+        <v>1081.75</v>
       </c>
       <c r="DC128">
-        <v>53.25</v>
+        <v>123</v>
       </c>
       <c r="DD128">
-        <v>606.19920000000002</v>
+        <v>163.04883000000001</v>
       </c>
     </row>
     <row r="129" spans="1:108" x14ac:dyDescent="0.3">
@@ -41797,124 +41782,124 @@
       </c>
       <c r="D129" s="2">
         <f t="shared" si="9"/>
-        <v>-34554.632757799998</v>
+        <v>-27965.947307999999</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>-26.650390000000002</v>
       </c>
       <c r="L129">
-        <v>-85.849609999999998</v>
+        <v>-351.2998</v>
       </c>
       <c r="M129">
-        <v>-532.74900000000002</v>
+        <v>-232.84961000000001</v>
       </c>
       <c r="N129">
-        <v>-291.19922000000003</v>
+        <v>0</v>
       </c>
       <c r="O129">
-        <v>-710.2002</v>
+        <v>-148.74902</v>
       </c>
       <c r="P129">
-        <v>-373.14940000000001</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>-359.34960000000001</v>
+        <v>-496.90039999999999</v>
       </c>
       <c r="R129">
-        <v>-145.2002</v>
+        <v>0</v>
       </c>
       <c r="S129">
-        <v>-563.25</v>
+        <v>0</v>
       </c>
       <c r="T129">
-        <v>-419.40136999999999</v>
+        <v>0</v>
       </c>
       <c r="U129">
-        <v>-243.44922</v>
+        <v>-205.5498</v>
       </c>
       <c r="V129">
-        <v>-479.09960000000001</v>
+        <v>0</v>
       </c>
       <c r="W129">
-        <v>-582.30079999999998</v>
+        <v>-1181.0508</v>
       </c>
       <c r="X129">
-        <v>-52.450195000000001</v>
+        <v>0</v>
       </c>
       <c r="Y129">
-        <v>-873.95119999999997</v>
+        <v>-743.05079999999998</v>
       </c>
       <c r="Z129">
-        <v>-122.94922</v>
+        <v>0</v>
       </c>
       <c r="AA129">
-        <v>-794.2998</v>
+        <v>-737.5</v>
       </c>
       <c r="AB129">
-        <v>-226.85059000000001</v>
+        <v>-762.5498</v>
       </c>
       <c r="AC129">
-        <v>-44.700195000000001</v>
+        <v>0</v>
       </c>
       <c r="AD129">
-        <v>-352.7002</v>
+        <v>0</v>
       </c>
       <c r="AE129">
-        <v>-684.39940000000001</v>
+        <v>0</v>
       </c>
       <c r="AF129">
-        <v>-329.35059999999999</v>
+        <v>-303.10059999999999</v>
       </c>
       <c r="AG129">
-        <v>-280.75</v>
+        <v>0</v>
       </c>
       <c r="AH129">
-        <v>0</v>
+        <v>-181.15038999999999</v>
       </c>
       <c r="AI129">
-        <v>-275.7002</v>
+        <v>-268.60059999999999</v>
       </c>
       <c r="AJ129">
-        <v>-526.7002</v>
+        <v>-293.84960000000001</v>
       </c>
       <c r="AK129">
         <v>0</v>
       </c>
       <c r="AL129">
-        <v>-190.7002</v>
+        <v>-76.849609999999998</v>
       </c>
       <c r="AM129">
-        <v>-51.150390000000002</v>
+        <v>-225.2002</v>
       </c>
       <c r="AN129">
-        <v>-294.94922000000003</v>
+        <v>-706.2998</v>
       </c>
       <c r="AO129">
-        <v>-13.450195000000001</v>
+        <v>-946.4502</v>
       </c>
       <c r="AP129">
-        <v>0</v>
+        <v>-983.5</v>
       </c>
       <c r="AQ129">
-        <v>-391.75</v>
+        <v>0</v>
       </c>
       <c r="AR129">
-        <v>-697.34960000000001</v>
+        <v>-616.84960000000001</v>
       </c>
       <c r="AS129">
-        <v>-176.14940999999999</v>
+        <v>-449.39940000000001</v>
       </c>
       <c r="AT129">
-        <v>-523.65039999999999</v>
+        <v>0</v>
       </c>
       <c r="AU129">
-        <v>-620.99900000000002</v>
+        <v>-355.64940000000001</v>
       </c>
       <c r="AV129">
-        <v>-177</v>
+        <v>-70.200194999999994</v>
       </c>
       <c r="AW129">
-        <v>-288.44922000000003</v>
+        <v>-1075.9492</v>
       </c>
       <c r="AX129">
         <v>0</v>
@@ -41923,175 +41908,175 @@
         <v>0</v>
       </c>
       <c r="AZ129">
-        <v>-394.10059999999999</v>
+        <v>0</v>
       </c>
       <c r="BA129">
-        <v>-500.0498</v>
+        <v>0</v>
       </c>
       <c r="BB129">
-        <v>-231.7998</v>
+        <v>0</v>
       </c>
       <c r="BC129">
-        <v>-140.5498</v>
+        <v>-1293.8994</v>
       </c>
       <c r="BD129">
-        <v>-596.99900000000002</v>
+        <v>0</v>
       </c>
       <c r="BE129">
-        <v>0</v>
+        <v>-726.40039999999999</v>
       </c>
       <c r="BF129">
-        <v>-756.35155999999995</v>
+        <v>-25.298828</v>
       </c>
       <c r="BG129">
-        <v>-268.04883000000001</v>
+        <v>-254.30078</v>
       </c>
       <c r="BH129">
-        <v>-411.15039999999999</v>
+        <v>-312.20116999999999</v>
       </c>
       <c r="BI129">
-        <v>-449.64843999999999</v>
+        <v>-439.89843999999999</v>
       </c>
       <c r="BJ129">
-        <v>-600.30079999999998</v>
+        <v>-16.150390000000002</v>
       </c>
       <c r="BK129">
-        <v>-895.65039999999999</v>
+        <v>-392.75</v>
       </c>
       <c r="BL129">
-        <v>-597.29880000000003</v>
+        <v>-273.65039999999999</v>
       </c>
       <c r="BM129">
-        <v>-525.25</v>
+        <v>-362.29883000000001</v>
       </c>
       <c r="BN129">
-        <v>-384.49804999999998</v>
+        <v>-78.400390000000002</v>
       </c>
       <c r="BO129">
-        <v>-1019.1992</v>
+        <v>-1100.0996</v>
       </c>
       <c r="BP129">
-        <v>-806.34960000000001</v>
+        <v>-420.54883000000001</v>
       </c>
       <c r="BQ129">
-        <v>-715.40039999999999</v>
+        <v>-145.19922</v>
       </c>
       <c r="BR129">
-        <v>-509.09960000000001</v>
+        <v>0</v>
       </c>
       <c r="BS129">
-        <v>-107.75</v>
+        <v>-244.0498</v>
       </c>
       <c r="BT129">
-        <v>0</v>
+        <v>-617.5</v>
       </c>
       <c r="BU129">
-        <v>-720.95119999999997</v>
+        <v>-463.7002</v>
       </c>
       <c r="BV129">
-        <v>-611.49900000000002</v>
+        <v>-25.799804999999999</v>
       </c>
       <c r="BW129">
-        <v>0</v>
+        <v>-48.150390000000002</v>
       </c>
       <c r="BX129">
-        <v>-197.05078</v>
+        <v>-331.65039999999999</v>
       </c>
       <c r="BY129">
-        <v>0</v>
+        <v>-827.25</v>
       </c>
       <c r="BZ129">
-        <v>-2.9492188000000001</v>
+        <v>-276.55077999999997</v>
       </c>
       <c r="CA129">
-        <v>-716.09960000000001</v>
+        <v>-997.54880000000003</v>
       </c>
       <c r="CB129">
-        <v>-93.898439999999994</v>
+        <v>0</v>
       </c>
       <c r="CC129">
-        <v>-279.85156000000001</v>
+        <v>-205.85156000000001</v>
       </c>
       <c r="CD129">
-        <v>-291.69922000000003</v>
+        <v>0</v>
       </c>
       <c r="CE129">
-        <v>-243.70116999999999</v>
+        <v>-866.10155999999995</v>
       </c>
       <c r="CF129">
-        <v>0</v>
+        <v>-69.798829999999995</v>
       </c>
       <c r="CG129">
         <v>0</v>
       </c>
       <c r="CH129">
-        <v>0</v>
+        <v>-102.69922</v>
       </c>
       <c r="CI129">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="CJ129">
-        <v>-8.5</v>
+        <v>-567.5</v>
       </c>
       <c r="CK129">
-        <v>-58.601562000000001</v>
+        <v>0</v>
       </c>
       <c r="CL129">
         <v>0</v>
       </c>
       <c r="CM129">
-        <v>-507.29883000000001</v>
+        <v>-505.5</v>
       </c>
       <c r="CN129">
-        <v>-336.5</v>
+        <v>-93.599609999999998</v>
       </c>
       <c r="CO129">
-        <v>-409.99804999999998</v>
+        <v>-420.79883000000001</v>
       </c>
       <c r="CP129">
-        <v>-273</v>
+        <v>0</v>
       </c>
       <c r="CQ129">
-        <v>-19.701172</v>
+        <v>-180</v>
       </c>
       <c r="CR129">
-        <v>-1891.1992</v>
+        <v>0</v>
       </c>
       <c r="CS129">
-        <v>0</v>
+        <v>-799</v>
       </c>
       <c r="CT129">
-        <v>-1324.2949000000001</v>
+        <v>0</v>
       </c>
       <c r="CU129">
-        <v>-92.798829999999995</v>
+        <v>0</v>
       </c>
       <c r="CV129">
-        <v>-134.29883000000001</v>
+        <v>-44.298830000000002</v>
       </c>
       <c r="CW129">
-        <v>-133.89843999999999</v>
+        <v>-95.400390000000002</v>
       </c>
       <c r="CX129">
-        <v>-202.39843999999999</v>
+        <v>0</v>
       </c>
       <c r="CY129">
-        <v>-283.15039999999999</v>
+        <v>0</v>
       </c>
       <c r="CZ129">
-        <v>-530</v>
+        <v>-1445.752</v>
       </c>
       <c r="DA129">
-        <v>-883.20119999999997</v>
+        <v>-705.80079999999998</v>
       </c>
       <c r="DB129">
-        <v>-736.44920000000002</v>
+        <v>0</v>
       </c>
       <c r="DC129">
-        <v>-328.05077999999997</v>
+        <v>-51.349609999999998</v>
       </c>
       <c r="DD129">
-        <v>-558.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:108" x14ac:dyDescent="0.3">
@@ -42106,7 +42091,7 @@
       </c>
       <c r="D130" s="2">
         <f t="shared" si="9"/>
-        <v>10328.575436000003</v>
+        <v>8106.5564439999944</v>
       </c>
       <c r="E130">
         <f>COUNT(K130:DD130)</f>
@@ -42114,301 +42099,301 @@
       </c>
       <c r="F130">
         <f>COUNTIF(K130:DD130,"&gt;0")</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>668.84960000000001</v>
+        <v>-26.650390000000002</v>
       </c>
       <c r="L130">
-        <v>345.40039999999999</v>
+        <v>-351.2998</v>
       </c>
       <c r="M130">
-        <v>437.10156000000001</v>
+        <v>-232.84961000000001</v>
       </c>
       <c r="N130">
-        <v>-197.69922</v>
+        <v>0</v>
       </c>
       <c r="O130">
-        <v>-710.2002</v>
+        <v>960.60155999999995</v>
       </c>
       <c r="P130">
-        <v>-324.09960000000001</v>
+        <v>8.25</v>
       </c>
       <c r="Q130">
-        <v>-236.29883000000001</v>
+        <v>-496.90039999999999</v>
       </c>
       <c r="R130">
-        <v>-145.2002</v>
+        <v>0</v>
       </c>
       <c r="S130">
-        <v>28.150390000000002</v>
+        <v>0</v>
       </c>
       <c r="T130">
-        <v>-419.40136999999999</v>
+        <v>0</v>
       </c>
       <c r="U130">
-        <v>-237.09863000000001</v>
+        <v>930.75</v>
       </c>
       <c r="V130">
-        <v>-479.09960000000001</v>
+        <v>811.90039999999999</v>
       </c>
       <c r="W130">
-        <v>225.79883000000001</v>
+        <v>-1181.0508</v>
       </c>
       <c r="X130">
-        <v>658.5</v>
+        <v>235.10059000000001</v>
       </c>
       <c r="Y130">
-        <v>-680.35155999999995</v>
+        <v>-743.05079999999998</v>
       </c>
       <c r="Z130">
-        <v>-108.79980500000001</v>
+        <v>168.35059000000001</v>
       </c>
       <c r="AA130">
-        <v>-794.2998</v>
+        <v>-737.5</v>
       </c>
       <c r="AB130">
-        <v>90.749020000000002</v>
+        <v>-674.9502</v>
       </c>
       <c r="AC130">
-        <v>646.7002</v>
+        <v>1224.0498</v>
       </c>
       <c r="AD130">
-        <v>-133.64940999999999</v>
+        <v>207.2002</v>
       </c>
       <c r="AE130">
-        <v>-532.5498</v>
+        <v>1728.25</v>
       </c>
       <c r="AF130">
-        <v>-209.15038999999999</v>
+        <v>-303.10059999999999</v>
       </c>
       <c r="AG130">
-        <v>45.048830000000002</v>
+        <v>62.000976999999999</v>
       </c>
       <c r="AH130">
-        <v>648.30079999999998</v>
+        <v>645.7998</v>
       </c>
       <c r="AI130">
-        <v>-20.299804999999999</v>
+        <v>-24.700195000000001</v>
       </c>
       <c r="AJ130">
-        <v>-440.25</v>
+        <v>91.850586000000007</v>
       </c>
       <c r="AK130">
-        <v>662.00099999999998</v>
+        <v>661.0498</v>
       </c>
       <c r="AL130">
-        <v>125.29980500000001</v>
+        <v>-76.849609999999998</v>
       </c>
       <c r="AM130">
-        <v>8.7490229999999993</v>
+        <v>61.699219999999997</v>
       </c>
       <c r="AN130">
-        <v>-59.799804999999999</v>
+        <v>-706.2998</v>
       </c>
       <c r="AO130">
-        <v>-13.450195000000001</v>
+        <v>-899.2998</v>
       </c>
       <c r="AP130">
-        <v>0</v>
+        <v>-983.5</v>
       </c>
       <c r="AQ130">
-        <v>1148.0996</v>
+        <v>0</v>
       </c>
       <c r="AR130">
-        <v>488.55077999999997</v>
+        <v>354.85059999999999</v>
       </c>
       <c r="AS130">
-        <v>155.09961000000001</v>
+        <v>-449.39940000000001</v>
       </c>
       <c r="AT130">
-        <v>-97.050780000000003</v>
+        <v>336.2998</v>
       </c>
       <c r="AU130">
-        <v>-456.49901999999997</v>
+        <v>-355.64940000000001</v>
       </c>
       <c r="AV130">
-        <v>451.75</v>
+        <v>368.9502</v>
       </c>
       <c r="AW130">
-        <v>-288.44922000000003</v>
+        <v>-1075.9492</v>
       </c>
       <c r="AX130">
-        <v>434.9502</v>
+        <v>39.200195000000001</v>
       </c>
       <c r="AY130">
-        <v>1912.25</v>
+        <v>2128.5</v>
       </c>
       <c r="AZ130">
-        <v>-394.10059999999999</v>
+        <v>183.64940999999999</v>
       </c>
       <c r="BA130">
-        <v>227.05078</v>
+        <v>0</v>
       </c>
       <c r="BB130">
-        <v>-174.14940999999999</v>
+        <v>244</v>
       </c>
       <c r="BC130">
-        <v>686.2002</v>
+        <v>-1293.8994</v>
       </c>
       <c r="BD130">
-        <v>-488.84863000000001</v>
+        <v>1289.3994</v>
       </c>
       <c r="BE130">
-        <v>0</v>
+        <v>-726.40039999999999</v>
       </c>
       <c r="BF130">
-        <v>1110.4492</v>
+        <v>2362.3535000000002</v>
       </c>
       <c r="BG130">
-        <v>258.30077999999997</v>
+        <v>1405.0488</v>
       </c>
       <c r="BH130">
-        <v>137.19922</v>
+        <v>-312.20116999999999</v>
       </c>
       <c r="BI130">
-        <v>-438.74804999999998</v>
+        <v>-439.89843999999999</v>
       </c>
       <c r="BJ130">
-        <v>-275.85156000000001</v>
+        <v>966.14844000000005</v>
       </c>
       <c r="BK130">
-        <v>-594.25</v>
+        <v>-392.75</v>
       </c>
       <c r="BL130">
-        <v>639.05273</v>
+        <v>638.34960000000001</v>
       </c>
       <c r="BM130">
-        <v>-329.45116999999999</v>
+        <v>-340.69922000000003</v>
       </c>
       <c r="BN130">
-        <v>174.10352</v>
+        <v>-78.400390000000002</v>
       </c>
       <c r="BO130">
-        <v>-1019.1992</v>
+        <v>-1100.0996</v>
       </c>
       <c r="BP130">
-        <v>-333.75</v>
+        <v>-420.54883000000001</v>
       </c>
       <c r="BQ130">
-        <v>-715.40039999999999</v>
+        <v>403.95116999999999</v>
       </c>
       <c r="BR130">
-        <v>161.65038999999999</v>
+        <v>832.04880000000003</v>
       </c>
       <c r="BS130">
-        <v>-107.75</v>
+        <v>826.40039999999999</v>
       </c>
       <c r="BT130">
-        <v>0</v>
+        <v>765.7002</v>
       </c>
       <c r="BU130">
-        <v>1446.9492</v>
+        <v>-463.7002</v>
       </c>
       <c r="BV130">
-        <v>-611.49900000000002</v>
+        <v>945.40137000000004</v>
       </c>
       <c r="BW130">
-        <v>1060.8008</v>
+        <v>31.800781000000001</v>
       </c>
       <c r="BX130">
-        <v>897.44920000000002</v>
+        <v>-331.65039999999999</v>
       </c>
       <c r="BY130">
-        <v>0</v>
+        <v>-429.40039999999999</v>
       </c>
       <c r="BZ130">
-        <v>1265.252</v>
+        <v>157.59961000000001</v>
       </c>
       <c r="CA130">
-        <v>425.10156000000001</v>
+        <v>-997.54880000000003</v>
       </c>
       <c r="CB130">
-        <v>583.20119999999997</v>
+        <v>558.75194999999997</v>
       </c>
       <c r="CC130">
-        <v>447.14843999999999</v>
+        <v>-205.85156000000001</v>
       </c>
       <c r="CD130">
-        <v>-75.949219999999997</v>
+        <v>308.34960000000001</v>
       </c>
       <c r="CE130">
-        <v>37.900390000000002</v>
+        <v>-866.10155999999995</v>
       </c>
       <c r="CF130">
-        <v>0</v>
+        <v>-69.798829999999995</v>
       </c>
       <c r="CG130">
-        <v>1589.7012</v>
+        <v>342.40039999999999</v>
       </c>
       <c r="CH130">
-        <v>595.90039999999999</v>
+        <v>294.80077999999997</v>
       </c>
       <c r="CI130">
-        <v>1101.4004</v>
+        <v>-651.40039999999999</v>
       </c>
       <c r="CJ130">
-        <v>232.5</v>
+        <v>-567.5</v>
       </c>
       <c r="CK130">
-        <v>-58.601562000000001</v>
+        <v>0</v>
       </c>
       <c r="CL130">
-        <v>1522.9004</v>
+        <v>1402.2988</v>
       </c>
       <c r="CM130">
-        <v>-443.39843999999999</v>
+        <v>-505.5</v>
       </c>
       <c r="CN130">
-        <v>-286.59960000000001</v>
+        <v>844.59960000000001</v>
       </c>
       <c r="CO130">
-        <v>1208.3008</v>
+        <v>-420.79883000000001</v>
       </c>
       <c r="CP130">
-        <v>-204.90038999999999</v>
+        <v>438.79883000000001</v>
       </c>
       <c r="CQ130">
-        <v>130.19922</v>
+        <v>-180</v>
       </c>
       <c r="CR130">
-        <v>-902.59960000000001</v>
+        <v>1567.5</v>
       </c>
       <c r="CS130">
-        <v>889.50194999999997</v>
+        <v>-560.59960000000001</v>
       </c>
       <c r="CT130">
-        <v>-1324.2949000000001</v>
+        <v>91.400390000000002</v>
       </c>
       <c r="CU130">
-        <v>771.90039999999999</v>
+        <v>1171.2988</v>
       </c>
       <c r="CV130">
-        <v>156.30078</v>
+        <v>614.10350000000005</v>
       </c>
       <c r="CW130">
-        <v>112.00194999999999</v>
+        <v>-95.400390000000002</v>
       </c>
       <c r="CX130">
-        <v>624.20119999999997</v>
+        <v>0</v>
       </c>
       <c r="CY130">
-        <v>-283.15039999999999</v>
+        <v>0</v>
       </c>
       <c r="CZ130">
-        <v>-403.80077999999997</v>
+        <v>-1445.752</v>
       </c>
       <c r="DA130">
-        <v>-883.20119999999997</v>
+        <v>-705.80079999999998</v>
       </c>
       <c r="DB130">
-        <v>-185.09961000000001</v>
+        <v>1081.75</v>
       </c>
       <c r="DC130">
-        <v>-274.80077999999997</v>
+        <v>71.650390000000002</v>
       </c>
       <c r="DD130">
-        <v>47.699219999999997</v>
+        <v>163.04883000000001</v>
       </c>
     </row>
     <row r="131" spans="1:108" x14ac:dyDescent="0.3">
@@ -42423,301 +42408,301 @@
       </c>
       <c r="D131" s="2">
         <f t="shared" si="9"/>
-        <v>34581.040841000002</v>
+        <v>30661.209548999985</v>
       </c>
       <c r="K131">
-        <v>81.449709999999996</v>
+        <v>163.34961000000001</v>
       </c>
       <c r="L131">
-        <v>659.24900000000002</v>
+        <v>208</v>
       </c>
       <c r="M131">
-        <v>115.65088</v>
+        <v>259.60059999999999</v>
       </c>
       <c r="N131">
-        <v>407.55077999999997</v>
+        <v>351.34912000000003</v>
       </c>
       <c r="O131">
-        <v>369.84960000000001</v>
+        <v>192.65038999999999</v>
       </c>
       <c r="P131">
-        <v>304.35059999999999</v>
+        <v>188.50049000000001</v>
       </c>
       <c r="Q131">
-        <v>244.99950999999999</v>
+        <v>171.3999</v>
       </c>
       <c r="R131">
-        <v>643.0498</v>
+        <v>275.49950000000001</v>
       </c>
       <c r="S131">
-        <v>531.25</v>
+        <v>676.5</v>
       </c>
       <c r="T131">
-        <v>266.1001</v>
+        <v>552.64940000000001</v>
       </c>
       <c r="U131">
-        <v>600.89890000000003</v>
+        <v>198.8501</v>
       </c>
       <c r="V131">
-        <v>281.1001</v>
+        <v>321.70116999999999</v>
       </c>
       <c r="W131">
-        <v>404</v>
+        <v>67.300290000000004</v>
       </c>
       <c r="X131">
-        <v>527.44970000000001</v>
+        <v>234.8501</v>
       </c>
       <c r="Y131">
-        <v>154.60059000000001</v>
+        <v>345.25049999999999</v>
       </c>
       <c r="Z131">
-        <v>146.74950999999999</v>
+        <v>215.1001</v>
       </c>
       <c r="AA131">
-        <v>375.80029999999999</v>
+        <v>318.19970000000001</v>
       </c>
       <c r="AB131">
-        <v>233.04931999999999</v>
+        <v>194.69922</v>
       </c>
       <c r="AC131">
-        <v>187.5</v>
+        <v>154.99950999999999</v>
       </c>
       <c r="AD131">
-        <v>254.55029999999999</v>
+        <v>86.25</v>
       </c>
       <c r="AE131">
-        <v>247.90038999999999</v>
+        <v>148.80078</v>
       </c>
       <c r="AF131">
-        <v>226.19970000000001</v>
+        <v>345.6001</v>
       </c>
       <c r="AG131">
-        <v>16.249511999999999</v>
+        <v>46.700195000000001</v>
       </c>
       <c r="AH131">
-        <v>160.9502</v>
+        <v>203.10156000000001</v>
       </c>
       <c r="AI131">
-        <v>216.30029999999999</v>
+        <v>113.70068000000001</v>
       </c>
       <c r="AJ131">
-        <v>259.70067999999998</v>
+        <v>157.0498</v>
       </c>
       <c r="AK131">
-        <v>248.49902</v>
+        <v>126.49951</v>
       </c>
       <c r="AL131">
-        <v>345.35059999999999</v>
+        <v>160.55126999999999</v>
       </c>
       <c r="AM131">
-        <v>270.3999</v>
+        <v>364.89940000000001</v>
       </c>
       <c r="AN131">
-        <v>341.45067999999998</v>
+        <v>154.94970000000001</v>
       </c>
       <c r="AO131">
-        <v>145.09961000000001</v>
+        <v>341.1001</v>
       </c>
       <c r="AP131">
-        <v>445.5498</v>
+        <v>426.10059999999999</v>
       </c>
       <c r="AQ131">
-        <v>358.30077999999997</v>
+        <v>622.4502</v>
       </c>
       <c r="AR131">
-        <v>434.09912000000003</v>
+        <v>423.34960000000001</v>
       </c>
       <c r="AS131">
-        <v>321.3501</v>
+        <v>245.9502</v>
       </c>
       <c r="AT131">
-        <v>261.6499</v>
+        <v>236.39893000000001</v>
       </c>
       <c r="AU131">
-        <v>140.0498</v>
+        <v>101.75049</v>
       </c>
       <c r="AV131">
-        <v>114.79980500000001</v>
+        <v>282.75</v>
       </c>
       <c r="AW131">
-        <v>459.95067999999998</v>
+        <v>223.60059000000001</v>
       </c>
       <c r="AX131">
-        <v>431.19922000000003</v>
+        <v>60</v>
       </c>
       <c r="AY131">
-        <v>165.75</v>
+        <v>314.5</v>
       </c>
       <c r="AZ131">
-        <v>610.5498</v>
+        <v>551.64940000000001</v>
       </c>
       <c r="BA131">
-        <v>269.44922000000003</v>
+        <v>323.6499</v>
       </c>
       <c r="BB131">
-        <v>198.79883000000001</v>
+        <v>354.5</v>
       </c>
       <c r="BC131">
-        <v>309.44970000000001</v>
+        <v>221.19970000000001</v>
       </c>
       <c r="BD131">
-        <v>106.55078</v>
+        <v>302.75049999999999</v>
       </c>
       <c r="BE131">
-        <v>456.8501</v>
+        <v>58.700195000000001</v>
       </c>
       <c r="BF131">
-        <v>377.24950000000001</v>
+        <v>226.75194999999999</v>
       </c>
       <c r="BG131">
-        <v>779.15039999999999</v>
+        <v>813.55079999999998</v>
       </c>
       <c r="BH131">
-        <v>277.39940000000001</v>
+        <v>54.649414</v>
       </c>
       <c r="BI131">
-        <v>263.4502</v>
+        <v>431.35156000000001</v>
       </c>
       <c r="BJ131">
-        <v>301.34960000000001</v>
+        <v>213.7002</v>
       </c>
       <c r="BK131">
-        <v>489.94922000000003</v>
+        <v>500.05029999999999</v>
       </c>
       <c r="BL131">
-        <v>560.2002</v>
+        <v>284.6499</v>
       </c>
       <c r="BM131">
-        <v>214.75</v>
+        <v>367.35059999999999</v>
       </c>
       <c r="BN131">
-        <v>488.60106999999999</v>
+        <v>124.70019499999999</v>
       </c>
       <c r="BO131">
-        <v>594.30029999999999</v>
+        <v>123.8999</v>
       </c>
       <c r="BP131">
-        <v>245.84961000000001</v>
+        <v>246.4502</v>
       </c>
       <c r="BQ131">
-        <v>360.3501</v>
+        <v>296.69970000000001</v>
       </c>
       <c r="BR131">
-        <v>310.99901999999997</v>
+        <v>222.25</v>
       </c>
       <c r="BS131">
-        <v>365.1001</v>
+        <v>315.75</v>
       </c>
       <c r="BT131">
-        <v>520.74950000000001</v>
+        <v>1115.9009000000001</v>
       </c>
       <c r="BU131">
-        <v>236.65038999999999</v>
+        <v>656.75049999999999</v>
       </c>
       <c r="BV131">
-        <v>268.44970000000001</v>
+        <v>402.6001</v>
       </c>
       <c r="BW131">
-        <v>249.1499</v>
+        <v>181.74902</v>
       </c>
       <c r="BX131">
-        <v>266.19824</v>
+        <v>221.70116999999999</v>
       </c>
       <c r="BY131">
-        <v>317.84960000000001</v>
+        <v>253.15038999999999</v>
       </c>
       <c r="BZ131">
-        <v>300.25098000000003</v>
+        <v>735.69920000000002</v>
       </c>
       <c r="CA131">
-        <v>302.19824</v>
+        <v>280.4502</v>
       </c>
       <c r="CB131">
-        <v>264.40039999999999</v>
+        <v>357.65039999999999</v>
       </c>
       <c r="CC131">
-        <v>795.04880000000003</v>
+        <v>759.64890000000003</v>
       </c>
       <c r="CD131">
-        <v>338.14940000000001</v>
+        <v>399.94970000000001</v>
       </c>
       <c r="CE131">
-        <v>500.45166</v>
+        <v>279.25</v>
       </c>
       <c r="CF131">
-        <v>385.0498</v>
+        <v>331.84863000000001</v>
       </c>
       <c r="CG131">
-        <v>431.44824</v>
+        <v>307.34960000000001</v>
       </c>
       <c r="CH131">
-        <v>245.65038999999999</v>
+        <v>186.25</v>
       </c>
       <c r="CI131">
-        <v>225.69824</v>
+        <v>314.69922000000003</v>
       </c>
       <c r="CJ131">
-        <v>112.39941399999999</v>
+        <v>55.951169999999998</v>
       </c>
       <c r="CK131">
-        <v>422.2002</v>
+        <v>672.95214999999996</v>
       </c>
       <c r="CL131">
-        <v>349.89940000000001</v>
+        <v>377.19922000000003</v>
       </c>
       <c r="CM131">
-        <v>258.75</v>
+        <v>286.15039999999999</v>
       </c>
       <c r="CN131">
-        <v>428.20116999999999</v>
+        <v>292.15039999999999</v>
       </c>
       <c r="CO131">
-        <v>315.50098000000003</v>
+        <v>178.5</v>
       </c>
       <c r="CP131">
-        <v>324.90039999999999</v>
+        <v>529.80079999999998</v>
       </c>
       <c r="CQ131">
-        <v>632.99900000000002</v>
+        <v>368</v>
       </c>
       <c r="CR131">
-        <v>265.7002</v>
+        <v>294.99901999999997</v>
       </c>
       <c r="CS131">
-        <v>302.20116999999999</v>
+        <v>436.90039999999999</v>
       </c>
       <c r="CT131">
-        <v>210.2998</v>
+        <v>247.59961000000001</v>
       </c>
       <c r="CU131">
-        <v>451.40039999999999</v>
+        <v>408.30077999999997</v>
       </c>
       <c r="CV131">
-        <v>874.09766000000002</v>
+        <v>673.7002</v>
       </c>
       <c r="CW131">
-        <v>327.09863000000001</v>
+        <v>239.09961000000001</v>
       </c>
       <c r="CX131">
-        <v>659.7002</v>
+        <v>149.09961000000001</v>
       </c>
       <c r="CY131">
-        <v>548.65039999999999</v>
+        <v>338.2998</v>
       </c>
       <c r="CZ131">
-        <v>1139.8525</v>
+        <v>515.20119999999997</v>
       </c>
       <c r="DA131">
-        <v>307.44922000000003</v>
+        <v>362.09863000000001</v>
       </c>
       <c r="DB131">
-        <v>283.24901999999997</v>
+        <v>540.7002</v>
       </c>
       <c r="DC131">
-        <v>377.30077999999997</v>
+        <v>437.90039999999999</v>
       </c>
       <c r="DD131">
-        <v>361.45116999999999</v>
+        <v>161.2002</v>
       </c>
     </row>
     <row r="132" spans="1:108" x14ac:dyDescent="0.3">
@@ -42732,301 +42717,301 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" si="9"/>
-        <v>-32503.466356000004</v>
+        <v>-31929.239234999994</v>
       </c>
       <c r="K132">
-        <v>-204.65088</v>
+        <v>-446.65039999999999</v>
       </c>
       <c r="L132">
-        <v>-382.94970000000001</v>
+        <v>-466.74950000000001</v>
       </c>
       <c r="M132">
-        <v>-492.69922000000003</v>
+        <v>-277.59960000000001</v>
       </c>
       <c r="N132">
-        <v>-344.00195000000002</v>
+        <v>-96.050290000000004</v>
       </c>
       <c r="O132">
-        <v>-335.69970000000001</v>
+        <v>-472.6499</v>
       </c>
       <c r="P132">
-        <v>-241</v>
+        <v>-307.84960000000001</v>
       </c>
       <c r="Q132">
-        <v>-429.14893000000001</v>
+        <v>-291.39843999999999</v>
       </c>
       <c r="R132">
-        <v>-116.64843999999999</v>
+        <v>-395.2998</v>
       </c>
       <c r="S132">
-        <v>-597.6001</v>
+        <v>-194.25098</v>
       </c>
       <c r="T132">
-        <v>-383.3501</v>
+        <v>-483.65087999999997</v>
       </c>
       <c r="U132">
-        <v>-254.44922</v>
+        <v>-259.24950000000001</v>
       </c>
       <c r="V132">
-        <v>-295.9502</v>
+        <v>-468.44824</v>
       </c>
       <c r="W132">
-        <v>-126.80029</v>
+        <v>-293.04932000000002</v>
       </c>
       <c r="X132">
-        <v>-143.5</v>
+        <v>-321.60059999999999</v>
       </c>
       <c r="Y132">
-        <v>-403.60059999999999</v>
+        <v>-186.15038999999999</v>
       </c>
       <c r="Z132">
-        <v>-443.49853999999999</v>
+        <v>-213.89893000000001</v>
       </c>
       <c r="AA132">
-        <v>-190.1001</v>
+        <v>-122.00049</v>
       </c>
       <c r="AB132">
-        <v>-353.00098000000003</v>
+        <v>-393.94970000000001</v>
       </c>
       <c r="AC132">
-        <v>-151.20116999999999</v>
+        <v>-297.89940000000001</v>
       </c>
       <c r="AD132">
-        <v>-224.75</v>
+        <v>-217.99950999999999</v>
       </c>
       <c r="AE132">
-        <v>-93.950680000000006</v>
+        <v>-157.54883000000001</v>
       </c>
       <c r="AF132">
-        <v>-156.04931999999999</v>
+        <v>-76.350586000000007</v>
       </c>
       <c r="AG132">
-        <v>-446.60156000000001</v>
+        <v>-381.15039999999999</v>
       </c>
       <c r="AH132">
-        <v>-258.34912000000003</v>
+        <v>-157.04931999999999</v>
       </c>
       <c r="AI132">
-        <v>-232.59961000000001</v>
+        <v>-162.74950999999999</v>
       </c>
       <c r="AJ132">
-        <v>-119.29980500000001</v>
+        <v>-115.20019499999999</v>
       </c>
       <c r="AK132">
-        <v>-197.04931999999999</v>
+        <v>-241.9502</v>
       </c>
       <c r="AL132">
-        <v>-221.89940999999999</v>
+        <v>-259.79883000000001</v>
       </c>
       <c r="AM132">
-        <v>-455.00049999999999</v>
+        <v>-479.55029999999999</v>
       </c>
       <c r="AN132">
-        <v>-347.00098000000003</v>
+        <v>-307.15087999999997</v>
       </c>
       <c r="AO132">
-        <v>-379.1499</v>
+        <v>-380.5498</v>
       </c>
       <c r="AP132">
-        <v>-563.4502</v>
+        <v>-410.3999</v>
       </c>
       <c r="AQ132">
-        <v>-741.14940000000001</v>
+        <v>-305.64940000000001</v>
       </c>
       <c r="AR132">
-        <v>-228.30029999999999</v>
+        <v>-318.4502</v>
       </c>
       <c r="AS132">
-        <v>-325.40039999999999</v>
+        <v>-522.04930000000002</v>
       </c>
       <c r="AT132">
-        <v>-372.19970000000001</v>
+        <v>-337.59960000000001</v>
       </c>
       <c r="AU132">
-        <v>-415.84912000000003</v>
+        <v>-162.60059000000001</v>
       </c>
       <c r="AV132">
-        <v>-182.0498</v>
+        <v>-146.80029999999999</v>
       </c>
       <c r="AW132">
-        <v>-84.350586000000007</v>
+        <v>-186.59961000000001</v>
       </c>
       <c r="AX132">
-        <v>-270.74853999999999</v>
+        <v>-245.04883000000001</v>
       </c>
       <c r="AY132">
-        <v>-299.3501</v>
+        <v>-332.05029999999999</v>
       </c>
       <c r="AZ132">
-        <v>-202.25049000000001</v>
+        <v>-255.7998</v>
       </c>
       <c r="BA132">
-        <v>-350.19922000000003</v>
+        <v>-411</v>
       </c>
       <c r="BB132">
-        <v>-385.05273</v>
+        <v>-315.55077999999997</v>
       </c>
       <c r="BC132">
-        <v>-361.5498</v>
+        <v>-158.1499</v>
       </c>
       <c r="BD132">
-        <v>-248.74950999999999</v>
+        <v>-345.14940000000001</v>
       </c>
       <c r="BE132">
-        <v>-116.44922</v>
+        <v>-276.10059999999999</v>
       </c>
       <c r="BF132">
-        <v>-364.79834</v>
+        <v>-362.89893000000001</v>
       </c>
       <c r="BG132">
-        <v>-369.14843999999999</v>
+        <v>-266.60059999999999</v>
       </c>
       <c r="BH132">
-        <v>-544.80079999999998</v>
+        <v>-480.25</v>
       </c>
       <c r="BI132">
-        <v>-270.79687999999999</v>
+        <v>-356.05077999999997</v>
       </c>
       <c r="BJ132">
-        <v>-280.50292999999999</v>
+        <v>-462.90136999999999</v>
       </c>
       <c r="BK132">
-        <v>-354.49756000000002</v>
+        <v>-297.1499</v>
       </c>
       <c r="BL132">
-        <v>-397.80029999999999</v>
+        <v>-441.39940000000001</v>
       </c>
       <c r="BM132">
-        <v>-351.85059999999999</v>
+        <v>-507</v>
       </c>
       <c r="BN132">
-        <v>-356.40039999999999</v>
+        <v>-696.05029999999999</v>
       </c>
       <c r="BO132">
-        <v>-599.44920000000002</v>
+        <v>-864.29930000000002</v>
       </c>
       <c r="BP132">
-        <v>-335.85399999999998</v>
+        <v>-434.25098000000003</v>
       </c>
       <c r="BQ132">
-        <v>-216.55029999999999</v>
+        <v>-54.350098000000003</v>
       </c>
       <c r="BR132">
-        <v>-320.8999</v>
+        <v>-334.84960000000001</v>
       </c>
       <c r="BS132">
-        <v>-294.1001</v>
+        <v>-291.6001</v>
       </c>
       <c r="BT132">
-        <v>-377.10106999999999</v>
+        <v>-345.2002</v>
       </c>
       <c r="BU132">
-        <v>-350.4502</v>
+        <v>-300.59863000000001</v>
       </c>
       <c r="BV132">
-        <v>-342.9502</v>
+        <v>-519.8501</v>
       </c>
       <c r="BW132">
-        <v>-523.8501</v>
+        <v>-314.50049999999999</v>
       </c>
       <c r="BX132">
-        <v>-625.25145999999995</v>
+        <v>-414.34960000000001</v>
       </c>
       <c r="BY132">
-        <v>-268.49901999999997</v>
+        <v>-181.80078</v>
       </c>
       <c r="BZ132">
-        <v>-325.75098000000003</v>
+        <v>-114.85058600000001</v>
       </c>
       <c r="CA132">
-        <v>-396.04883000000001</v>
+        <v>-394.14843999999999</v>
       </c>
       <c r="CB132">
-        <v>-317.2998</v>
+        <v>-219.50194999999999</v>
       </c>
       <c r="CC132">
-        <v>-103.45019499999999</v>
+        <v>-445.65136999999999</v>
       </c>
       <c r="CD132">
-        <v>-506.60399999999998</v>
+        <v>-172.3501</v>
       </c>
       <c r="CE132">
-        <v>-162.19824</v>
+        <v>-157.89843999999999</v>
       </c>
       <c r="CF132">
-        <v>-160.65234000000001</v>
+        <v>-75</v>
       </c>
       <c r="CG132">
-        <v>-189.2002</v>
+        <v>-189.35059000000001</v>
       </c>
       <c r="CH132">
-        <v>-318.89940000000001</v>
+        <v>-176.64940999999999</v>
       </c>
       <c r="CI132">
-        <v>-265.10253999999998</v>
+        <v>-107.15039</v>
       </c>
       <c r="CJ132">
-        <v>-281.60352</v>
+        <v>-257.90136999999999</v>
       </c>
       <c r="CK132">
-        <v>-101.34961</v>
+        <v>-168.89843999999999</v>
       </c>
       <c r="CL132">
-        <v>-339.15136999999999</v>
+        <v>-364.89940000000001</v>
       </c>
       <c r="CM132">
-        <v>-358.75195000000002</v>
+        <v>-342.29883000000001</v>
       </c>
       <c r="CN132">
-        <v>-346.09863000000001</v>
+        <v>-354.44824</v>
       </c>
       <c r="CO132">
-        <v>-405.50195000000002</v>
+        <v>-103.30078</v>
       </c>
       <c r="CP132">
-        <v>-332.10059999999999</v>
+        <v>-369.90039999999999</v>
       </c>
       <c r="CQ132">
-        <v>-196.69922</v>
+        <v>-312.5</v>
       </c>
       <c r="CR132">
-        <v>-892.80175999999994</v>
+        <v>-601.50099999999998</v>
       </c>
       <c r="CS132">
-        <v>-435.39940000000001</v>
+        <v>-426.2002</v>
       </c>
       <c r="CT132">
-        <v>-275.10059999999999</v>
+        <v>-311.90039999999999</v>
       </c>
       <c r="CU132">
-        <v>-277.20116999999999</v>
+        <v>-284.7998</v>
       </c>
       <c r="CV132">
-        <v>-193.30176</v>
+        <v>-43.5</v>
       </c>
       <c r="CW132">
-        <v>-119.29883</v>
+        <v>-178.89843999999999</v>
       </c>
       <c r="CX132">
-        <v>-159.10156000000001</v>
+        <v>-312.5</v>
       </c>
       <c r="CY132">
-        <v>-357.90332000000001</v>
+        <v>-479.25</v>
       </c>
       <c r="CZ132">
-        <v>-591.19920000000002</v>
+        <v>-658.2002</v>
       </c>
       <c r="DA132">
-        <v>-335.45116999999999</v>
+        <v>-752.59960000000001</v>
       </c>
       <c r="DB132">
-        <v>-570.79589999999996</v>
+        <v>-903.89844000000005</v>
       </c>
       <c r="DC132">
-        <v>-876.59862999999996</v>
+        <v>-384.44922000000003</v>
       </c>
       <c r="DD132">
-        <v>-598.64844000000005</v>
+        <v>-684.44920000000002</v>
       </c>
     </row>
     <row r="133" spans="1:108" x14ac:dyDescent="0.3">
@@ -43041,7 +43026,7 @@
       </c>
       <c r="D133" s="2">
         <f t="shared" si="9"/>
-        <v>2077.5746640000002</v>
+        <v>-1268.0297300999996</v>
       </c>
       <c r="E133">
         <f>COUNT(K133:DD133)</f>
@@ -43049,301 +43034,301 @@
       </c>
       <c r="F133">
         <f>COUNTIF(K133:DD133,"&gt;0")</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>-123.20117</v>
+        <v>-283.30077999999997</v>
       </c>
       <c r="L133">
-        <v>276.29932000000002</v>
+        <v>-258.74950000000001</v>
       </c>
       <c r="M133">
-        <v>-377.04834</v>
+        <v>-17.999023000000001</v>
       </c>
       <c r="N133">
-        <v>63.548830000000002</v>
+        <v>255.29883000000001</v>
       </c>
       <c r="O133">
-        <v>34.149901999999997</v>
+        <v>-279.99950000000001</v>
       </c>
       <c r="P133">
-        <v>63.350586</v>
+        <v>-119.34912</v>
       </c>
       <c r="Q133">
-        <v>-184.14940999999999</v>
+        <v>-119.998535</v>
       </c>
       <c r="R133">
-        <v>526.40137000000004</v>
+        <v>-119.80029</v>
       </c>
       <c r="S133">
-        <v>-66.350099999999998</v>
+        <v>482.24901999999997</v>
       </c>
       <c r="T133">
+        <v>68.998535000000004</v>
+      </c>
+      <c r="U133">
+        <v>-60.399414</v>
+      </c>
+      <c r="V133">
+        <v>-146.74707000000001</v>
+      </c>
+      <c r="W133">
+        <v>-225.74902</v>
+      </c>
+      <c r="X133">
+        <v>-86.750489999999999</v>
+      </c>
+      <c r="Y133">
+        <v>159.1001</v>
+      </c>
+      <c r="Z133">
+        <v>1.2011719000000001</v>
+      </c>
+      <c r="AA133">
+        <v>196.19922</v>
+      </c>
+      <c r="AB133">
+        <v>-199.25049000000001</v>
+      </c>
+      <c r="AC133">
+        <v>-142.8999</v>
+      </c>
+      <c r="AD133">
+        <v>-131.74950999999999</v>
+      </c>
+      <c r="AE133">
+        <v>-8.7480469999999997</v>
+      </c>
+      <c r="AF133">
+        <v>269.24950000000001</v>
+      </c>
+      <c r="AG133">
+        <v>-334.4502</v>
+      </c>
+      <c r="AH133">
+        <v>46.052245999999997</v>
+      </c>
+      <c r="AI133">
+        <v>-49.048830000000002</v>
+      </c>
+      <c r="AJ133">
+        <v>41.849609999999998</v>
+      </c>
+      <c r="AK133">
+        <v>-115.45068000000001</v>
+      </c>
+      <c r="AL133">
+        <v>-99.247559999999993</v>
+      </c>
+      <c r="AM133">
+        <v>-114.65088</v>
+      </c>
+      <c r="AN133">
+        <v>-152.20116999999999</v>
+      </c>
+      <c r="AO133">
+        <v>-39.449706999999997</v>
+      </c>
+      <c r="AP133">
+        <v>15.700684000000001</v>
+      </c>
+      <c r="AQ133">
+        <v>316.80077999999997</v>
+      </c>
+      <c r="AR133">
+        <v>104.89941399999999</v>
+      </c>
+      <c r="AS133">
+        <v>-276.09912000000003</v>
+      </c>
+      <c r="AT133">
+        <v>-101.20068000000001</v>
+      </c>
+      <c r="AU133">
+        <v>-60.850098000000003</v>
+      </c>
+      <c r="AV133">
+        <v>135.94970000000001</v>
+      </c>
+      <c r="AW133">
+        <v>37.000976999999999</v>
+      </c>
+      <c r="AX133">
+        <v>-185.04883000000001</v>
+      </c>
+      <c r="AY133">
+        <v>-17.550293</v>
+      </c>
+      <c r="AZ133">
+        <v>295.84960000000001</v>
+      </c>
+      <c r="BA133">
+        <v>-87.350099999999998</v>
+      </c>
+      <c r="BB133">
+        <v>38.949219999999997</v>
+      </c>
+      <c r="BC133">
+        <v>63.049804999999999</v>
+      </c>
+      <c r="BD133">
+        <v>-42.398926000000003</v>
+      </c>
+      <c r="BE133">
+        <v>-217.40038999999999</v>
+      </c>
+      <c r="BF133">
+        <v>-136.14697000000001</v>
+      </c>
+      <c r="BG133">
+        <v>546.9502</v>
+      </c>
+      <c r="BH133">
+        <v>-425.60059999999999</v>
+      </c>
+      <c r="BI133">
+        <v>75.300780000000003</v>
+      </c>
+      <c r="BJ133">
+        <v>-249.20116999999999</v>
+      </c>
+      <c r="BK133">
+        <v>202.90038999999999</v>
+      </c>
+      <c r="BL133">
+        <v>-156.74950999999999</v>
+      </c>
+      <c r="BM133">
+        <v>-139.64940999999999</v>
+      </c>
+      <c r="BN133">
+        <v>-571.3501</v>
+      </c>
+      <c r="BO133">
+        <v>-740.39940000000001</v>
+      </c>
+      <c r="BP133">
+        <v>-187.80078</v>
+      </c>
+      <c r="BQ133">
+        <v>242.34961000000001</v>
+      </c>
+      <c r="BR133">
+        <v>-112.59961</v>
+      </c>
+      <c r="BS133">
+        <v>24.149902000000001</v>
+      </c>
+      <c r="BT133">
+        <v>770.70069999999998</v>
+      </c>
+      <c r="BU133">
+        <v>356.15186</v>
+      </c>
+      <c r="BV133">
         <v>-117.25</v>
       </c>
-      <c r="U133">
-        <v>346.44970000000001</v>
-      </c>
-      <c r="V133">
-        <v>-14.850097999999999</v>
-      </c>
-      <c r="W133">
-        <v>277.19970000000001</v>
-      </c>
-      <c r="X133">
-        <v>383.94970000000001</v>
-      </c>
-      <c r="Y133">
-        <v>-249</v>
-      </c>
-      <c r="Z133">
-        <v>-296.74901999999997</v>
-      </c>
-      <c r="AA133">
-        <v>185.7002</v>
-      </c>
-      <c r="AB133">
-        <v>-119.95166</v>
-      </c>
-      <c r="AC133">
-        <v>36.298830000000002</v>
-      </c>
-      <c r="AD133">
-        <v>29.800293</v>
-      </c>
-      <c r="AE133">
-        <v>153.94970000000001</v>
-      </c>
-      <c r="AF133">
-        <v>70.150390000000002</v>
-      </c>
-      <c r="AG133">
-        <v>-430.35205000000002</v>
-      </c>
-      <c r="AH133">
-        <v>-97.398926000000003</v>
-      </c>
-      <c r="AI133">
-        <v>-16.299316000000001</v>
-      </c>
-      <c r="AJ133">
-        <v>140.40088</v>
-      </c>
-      <c r="AK133">
-        <v>51.449706999999997</v>
-      </c>
-      <c r="AL133">
-        <v>123.45117</v>
-      </c>
-      <c r="AM133">
-        <v>-184.60059000000001</v>
-      </c>
-      <c r="AN133">
-        <v>-5.5502929999999999</v>
-      </c>
-      <c r="AO133">
-        <v>-234.05029999999999</v>
-      </c>
-      <c r="AP133">
-        <v>-117.90039</v>
-      </c>
-      <c r="AQ133">
-        <v>-382.84863000000001</v>
-      </c>
-      <c r="AR133">
-        <v>205.79883000000001</v>
-      </c>
-      <c r="AS133">
-        <v>-4.0502929999999999</v>
-      </c>
-      <c r="AT133">
-        <v>-110.54980500000001</v>
-      </c>
-      <c r="AU133">
-        <v>-275.79932000000002</v>
-      </c>
-      <c r="AV133">
-        <v>-67.25</v>
-      </c>
-      <c r="AW133">
-        <v>375.6001</v>
-      </c>
-      <c r="AX133">
-        <v>160.45068000000001</v>
-      </c>
-      <c r="AY133">
-        <v>-133.6001</v>
-      </c>
-      <c r="AZ133">
-        <v>408.29932000000002</v>
-      </c>
-      <c r="BA133">
-        <v>-80.75</v>
-      </c>
-      <c r="BB133">
-        <v>-186.25389999999999</v>
-      </c>
-      <c r="BC133">
-        <v>-52.100098000000003</v>
-      </c>
-      <c r="BD133">
-        <v>-142.19873000000001</v>
-      </c>
-      <c r="BE133">
-        <v>340.40087999999997</v>
-      </c>
-      <c r="BF133">
-        <v>12.451172</v>
-      </c>
-      <c r="BG133">
-        <v>410.00195000000002</v>
-      </c>
-      <c r="BH133">
-        <v>-267.40136999999999</v>
-      </c>
-      <c r="BI133">
-        <v>-7.3466797000000001</v>
-      </c>
-      <c r="BJ133">
-        <v>20.846679999999999</v>
-      </c>
-      <c r="BK133">
-        <v>135.45166</v>
-      </c>
-      <c r="BL133">
-        <v>162.3999</v>
-      </c>
-      <c r="BM133">
-        <v>-137.10059000000001</v>
-      </c>
-      <c r="BN133">
-        <v>132.20068000000001</v>
-      </c>
-      <c r="BO133">
-        <v>-5.1489260000000003</v>
-      </c>
-      <c r="BP133">
-        <v>-90.004395000000002</v>
-      </c>
-      <c r="BQ133">
-        <v>143.7998</v>
-      </c>
-      <c r="BR133">
-        <v>-9.9008789999999998</v>
-      </c>
-      <c r="BS133">
-        <v>71</v>
-      </c>
-      <c r="BT133">
-        <v>143.64843999999999</v>
-      </c>
-      <c r="BU133">
-        <v>-113.79980500000001</v>
-      </c>
-      <c r="BV133">
-        <v>-74.500489999999999</v>
-      </c>
       <c r="BW133">
-        <v>-274.7002</v>
+        <v>-132.75146000000001</v>
       </c>
       <c r="BX133">
-        <v>-359.05322000000001</v>
+        <v>-192.64843999999999</v>
       </c>
       <c r="BY133">
-        <v>49.350586</v>
+        <v>71.349609999999998</v>
       </c>
       <c r="BZ133">
-        <v>-25.5</v>
+        <v>620.84862999999996</v>
       </c>
       <c r="CA133">
-        <v>-93.850586000000007</v>
+        <v>-113.69824</v>
       </c>
       <c r="CB133">
-        <v>-52.899414</v>
+        <v>138.14843999999999</v>
       </c>
       <c r="CC133">
-        <v>691.59862999999996</v>
+        <v>313.99756000000002</v>
       </c>
       <c r="CD133">
-        <v>-168.45459</v>
+        <v>227.59961000000001</v>
       </c>
       <c r="CE133">
-        <v>338.25342000000001</v>
+        <v>121.35156000000001</v>
       </c>
       <c r="CF133">
-        <v>224.39746</v>
+        <v>256.84863000000001</v>
       </c>
       <c r="CG133">
-        <v>242.24805000000001</v>
+        <v>117.99902</v>
       </c>
       <c r="CH133">
-        <v>-73.249020000000002</v>
+        <v>9.6005859999999998</v>
       </c>
       <c r="CI133">
-        <v>-39.404297</v>
+        <v>207.54883000000001</v>
       </c>
       <c r="CJ133">
-        <v>-169.20410000000001</v>
+        <v>-201.9502</v>
       </c>
       <c r="CK133">
-        <v>320.85059999999999</v>
+        <v>504.05369999999999</v>
       </c>
       <c r="CL133">
-        <v>10.748047</v>
+        <v>12.299804999999999</v>
       </c>
       <c r="CM133">
-        <v>-100.00194999999999</v>
+        <v>-56.148437999999999</v>
       </c>
       <c r="CN133">
-        <v>82.102540000000005</v>
+        <v>-62.297849999999997</v>
       </c>
       <c r="CO133">
-        <v>-90.000979999999998</v>
+        <v>75.199219999999997</v>
       </c>
       <c r="CP133">
-        <v>-7.2001952999999999</v>
+        <v>159.90038999999999</v>
       </c>
       <c r="CQ133">
-        <v>436.2998</v>
+        <v>55.5</v>
       </c>
       <c r="CR133">
-        <v>-627.10155999999995</v>
+        <v>-306.50195000000002</v>
       </c>
       <c r="CS133">
-        <v>-133.19824</v>
+        <v>10.700195000000001</v>
       </c>
       <c r="CT133">
-        <v>-64.800780000000003</v>
+        <v>-64.300780000000003</v>
       </c>
       <c r="CU133">
-        <v>174.19922</v>
+        <v>123.50098</v>
       </c>
       <c r="CV133">
-        <v>680.79589999999996</v>
+        <v>630.2002</v>
       </c>
       <c r="CW133">
-        <v>207.7998</v>
+        <v>60.201169999999998</v>
       </c>
       <c r="CX133">
-        <v>500.59863000000001</v>
+        <v>-163.40038999999999</v>
       </c>
       <c r="CY133">
-        <v>190.74707000000001</v>
+        <v>-140.9502</v>
       </c>
       <c r="CZ133">
-        <v>548.65329999999994</v>
+        <v>-142.99902</v>
       </c>
       <c r="DA133">
-        <v>-28.001953</v>
+        <v>-390.50098000000003</v>
       </c>
       <c r="DB133">
-        <v>-287.54687999999999</v>
+        <v>-363.19824</v>
       </c>
       <c r="DC133">
-        <v>-499.29784999999998</v>
+        <v>53.451169999999998</v>
       </c>
       <c r="DD133">
-        <v>-237.19727</v>
+        <v>-523.24900000000002</v>
       </c>
     </row>
     <row r="134" spans="1:108" x14ac:dyDescent="0.3">
@@ -43358,52 +43343,52 @@
       </c>
       <c r="D134" s="2">
         <f t="shared" si="9"/>
-        <v>14975.604045300001</v>
+        <v>11492.352539700003</v>
       </c>
       <c r="K134">
-        <v>36.100098000000003</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>237.5</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>4.4501952999999999</v>
       </c>
       <c r="N134">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="O134">
-        <v>0</v>
+        <v>439.39940000000001</v>
       </c>
       <c r="P134">
-        <v>75.100099999999998</v>
+        <v>204</v>
       </c>
       <c r="Q134">
-        <v>60.200195000000001</v>
+        <v>331.34960000000001</v>
       </c>
       <c r="R134">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="S134">
-        <v>134.75</v>
+        <v>112.5</v>
       </c>
       <c r="T134">
         <v>0</v>
       </c>
       <c r="U134">
-        <v>264.25</v>
+        <v>309.8501</v>
       </c>
       <c r="V134">
-        <v>111.75</v>
+        <v>191.7002</v>
       </c>
       <c r="W134">
         <v>0</v>
       </c>
       <c r="X134">
-        <v>220.65038999999999</v>
+        <v>41.650390000000002</v>
       </c>
       <c r="Y134">
-        <v>88.75</v>
+        <v>0</v>
       </c>
       <c r="Z134">
         <v>0</v>
@@ -43415,118 +43400,118 @@
         <v>0</v>
       </c>
       <c r="AC134">
-        <v>123.6499</v>
+        <v>189.5498</v>
       </c>
       <c r="AD134">
-        <v>222.6001</v>
+        <v>254.15038999999999</v>
       </c>
       <c r="AE134">
-        <v>0</v>
+        <v>432.1001</v>
       </c>
       <c r="AF134">
-        <v>416.9502</v>
+        <v>15.600586</v>
       </c>
       <c r="AG134">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="AH134">
-        <v>238.80029999999999</v>
+        <v>274.5</v>
       </c>
       <c r="AI134">
-        <v>86.5</v>
+        <v>0</v>
       </c>
       <c r="AJ134">
         <v>0</v>
       </c>
       <c r="AK134">
-        <v>259.9502</v>
+        <v>331.10059999999999</v>
       </c>
       <c r="AL134">
-        <v>27.600097999999999</v>
+        <v>0</v>
       </c>
       <c r="AM134">
-        <v>49.600098000000003</v>
+        <v>0</v>
       </c>
       <c r="AN134">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="AO134">
-        <v>17.399902000000001</v>
+        <v>0</v>
       </c>
       <c r="AP134">
-        <v>39.050293000000003</v>
+        <v>0</v>
       </c>
       <c r="AQ134">
-        <v>130.15038999999999</v>
+        <v>0</v>
       </c>
       <c r="AR134">
-        <v>0</v>
+        <v>253.75</v>
       </c>
       <c r="AS134">
-        <v>498.05029999999999</v>
+        <v>0</v>
       </c>
       <c r="AT134">
-        <v>116.09961</v>
+        <v>177.19970000000001</v>
       </c>
       <c r="AU134">
-        <v>95.75</v>
+        <v>0</v>
       </c>
       <c r="AV134">
-        <v>36.25</v>
+        <v>0</v>
       </c>
       <c r="AW134">
-        <v>0</v>
+        <v>478.25</v>
       </c>
       <c r="AX134">
-        <v>376.30029999999999</v>
+        <v>136.5</v>
       </c>
       <c r="AY134">
-        <v>0</v>
+        <v>588.3501</v>
       </c>
       <c r="AZ134">
-        <v>851.6001</v>
+        <v>0</v>
       </c>
       <c r="BA134">
-        <v>92.550290000000004</v>
+        <v>28.900390000000002</v>
       </c>
       <c r="BB134">
-        <v>79.599609999999998</v>
+        <v>0</v>
       </c>
       <c r="BC134">
-        <v>454.8999</v>
+        <v>37.649901999999997</v>
       </c>
       <c r="BD134">
         <v>0</v>
       </c>
       <c r="BE134">
-        <v>0</v>
+        <v>577.75049999999999</v>
       </c>
       <c r="BF134">
-        <v>760.00049999999999</v>
+        <v>52.700195000000001</v>
       </c>
       <c r="BG134">
         <v>0</v>
       </c>
       <c r="BH134">
-        <v>416.75</v>
+        <v>93.049805000000006</v>
       </c>
       <c r="BI134">
         <v>0</v>
       </c>
       <c r="BJ134">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="BK134">
-        <v>0</v>
+        <v>392.84960000000001</v>
       </c>
       <c r="BL134">
-        <v>254.80029999999999</v>
+        <v>766.2002</v>
       </c>
       <c r="BM134">
-        <v>4.9501952999999999</v>
+        <v>0</v>
       </c>
       <c r="BN134">
-        <v>228.20068000000001</v>
+        <v>0</v>
       </c>
       <c r="BO134">
         <v>0</v>
@@ -43538,121 +43523,121 @@
         <v>0</v>
       </c>
       <c r="BR134">
-        <v>172.6001</v>
+        <v>334.25</v>
       </c>
       <c r="BS134">
-        <v>232.5</v>
+        <v>0</v>
       </c>
       <c r="BT134">
-        <v>181.5</v>
+        <v>244.34961000000001</v>
       </c>
       <c r="BU134">
         <v>0</v>
       </c>
       <c r="BV134">
-        <v>90.75</v>
+        <v>155.7002</v>
       </c>
       <c r="BW134">
-        <v>248.8501</v>
+        <v>0</v>
       </c>
       <c r="BX134">
-        <v>353.1001</v>
+        <v>56.799804999999999</v>
       </c>
       <c r="BY134">
-        <v>0</v>
+        <v>233.34961000000001</v>
       </c>
       <c r="BZ134">
-        <v>487.50098000000003</v>
+        <v>18.300781000000001</v>
       </c>
       <c r="CA134">
-        <v>130.94922</v>
+        <v>2.8496093999999998</v>
       </c>
       <c r="CB134">
-        <v>88.599609999999998</v>
+        <v>0</v>
       </c>
       <c r="CC134">
-        <v>65.049805000000006</v>
+        <v>0</v>
       </c>
       <c r="CD134">
-        <v>78.850099999999998</v>
+        <v>249.3501</v>
       </c>
       <c r="CE134">
-        <v>0</v>
+        <v>210.94970000000001</v>
       </c>
       <c r="CF134">
-        <v>0</v>
+        <v>23.25</v>
       </c>
       <c r="CG134">
-        <v>554.65039999999999</v>
+        <v>124</v>
       </c>
       <c r="CH134">
-        <v>50</v>
+        <v>80.650390000000002</v>
       </c>
       <c r="CI134">
-        <v>168.2002</v>
+        <v>166.10059000000001</v>
       </c>
       <c r="CJ134">
-        <v>68.299805000000006</v>
+        <v>49.100586</v>
       </c>
       <c r="CK134">
-        <v>0</v>
+        <v>212.15038999999999</v>
       </c>
       <c r="CL134">
-        <v>548.2002</v>
+        <v>116.34961</v>
       </c>
       <c r="CM134">
-        <v>80</v>
+        <v>12.049804999999999</v>
       </c>
       <c r="CN134">
-        <v>124.84961</v>
+        <v>512.90039999999999</v>
       </c>
       <c r="CO134">
-        <v>80.400390000000002</v>
+        <v>153</v>
       </c>
       <c r="CP134">
-        <v>73.5</v>
+        <v>324.09960000000001</v>
       </c>
       <c r="CQ134">
         <v>0</v>
       </c>
       <c r="CR134">
-        <v>297.39940000000001</v>
+        <v>509.90039999999999</v>
       </c>
       <c r="CS134">
-        <v>132.89940999999999</v>
+        <v>0</v>
       </c>
       <c r="CT134">
-        <v>199.10059000000001</v>
+        <v>395.5</v>
       </c>
       <c r="CU134">
-        <v>168.90038999999999</v>
+        <v>0</v>
       </c>
       <c r="CV134">
-        <v>25.799804999999999</v>
+        <v>182.40038999999999</v>
       </c>
       <c r="CW134">
-        <v>0</v>
+        <v>280.59960000000001</v>
       </c>
       <c r="CX134">
         <v>0</v>
       </c>
       <c r="CY134">
-        <v>872.54880000000003</v>
+        <v>100.25</v>
       </c>
       <c r="CZ134">
-        <v>488.4502</v>
+        <v>0</v>
       </c>
       <c r="DA134">
-        <v>30.300781000000001</v>
+        <v>0</v>
       </c>
       <c r="DB134">
-        <v>944.75</v>
+        <v>0</v>
       </c>
       <c r="DC134">
-        <v>130.25098</v>
+        <v>0</v>
       </c>
       <c r="DD134">
-        <v>200.49902</v>
+        <v>29.099609999999998</v>
       </c>
     </row>
     <row r="135" spans="1:108" x14ac:dyDescent="0.3">
@@ -43667,298 +43652,298 @@
       </c>
       <c r="D135" s="2">
         <f t="shared" si="9"/>
-        <v>-13134.945275400001</v>
+        <v>-10993.292944100001</v>
       </c>
       <c r="K135">
-        <v>-41.5</v>
+        <v>-181.5</v>
       </c>
       <c r="L135">
-        <v>-53.049804999999999</v>
+        <v>-94</v>
       </c>
       <c r="M135">
-        <v>-211.3501</v>
+        <v>-65.449709999999996</v>
       </c>
       <c r="N135">
-        <v>-269.2002</v>
+        <v>0</v>
       </c>
       <c r="O135">
-        <v>-273.55029999999999</v>
+        <v>-64.550290000000004</v>
       </c>
       <c r="P135">
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>-239.5498</v>
+        <v>-44.800293000000003</v>
       </c>
       <c r="R135">
-        <v>-30.899902000000001</v>
+        <v>0</v>
       </c>
       <c r="S135">
-        <v>-117.3501</v>
+        <v>-325.80029999999999</v>
       </c>
       <c r="T135">
-        <v>-269.89940000000001</v>
+        <v>0</v>
       </c>
       <c r="U135">
-        <v>-372.05029999999999</v>
+        <v>-100</v>
       </c>
       <c r="V135">
-        <v>-418.84960000000001</v>
+        <v>0</v>
       </c>
       <c r="W135">
-        <v>-406.6499</v>
+        <v>-66.649900000000002</v>
       </c>
       <c r="X135">
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>-347.05077999999997</v>
+        <v>-265.6001</v>
       </c>
       <c r="Z135">
-        <v>-213.50049000000001</v>
+        <v>-30.700195000000001</v>
       </c>
       <c r="AA135">
-        <v>-143.2002</v>
+        <v>-79.949709999999996</v>
       </c>
       <c r="AB135">
-        <v>-198.64940999999999</v>
+        <v>-285.5</v>
       </c>
       <c r="AC135">
-        <v>-26.850586</v>
+        <v>-18.300293</v>
       </c>
       <c r="AD135">
-        <v>-110.04980500000001</v>
+        <v>-9.2998049999999992</v>
       </c>
       <c r="AE135">
-        <v>-55.350098000000003</v>
+        <v>-3.7998047000000001</v>
       </c>
       <c r="AF135">
-        <v>-157.94970000000001</v>
+        <v>-186.8999</v>
       </c>
       <c r="AG135">
-        <v>-2.3500977000000001</v>
+        <v>-9.3999020000000009</v>
       </c>
       <c r="AH135">
-        <v>-53.399901999999997</v>
+        <v>-28.399902000000001</v>
       </c>
       <c r="AI135">
-        <v>-59.499510000000001</v>
+        <v>-64.949709999999996</v>
       </c>
       <c r="AJ135">
-        <v>-143.79931999999999</v>
+        <v>-132.09961000000001</v>
       </c>
       <c r="AK135">
-        <v>-55.449706999999997</v>
+        <v>-16.850097999999999</v>
       </c>
       <c r="AL135">
-        <v>-131.5</v>
+        <v>-118.99951</v>
       </c>
       <c r="AM135">
-        <v>-27.100097999999999</v>
+        <v>-31.299804999999999</v>
       </c>
       <c r="AN135">
-        <v>-129.05029999999999</v>
+        <v>-457.44922000000003</v>
       </c>
       <c r="AO135">
-        <v>-221</v>
+        <v>-223.2002</v>
       </c>
       <c r="AP135">
-        <v>-297.75</v>
+        <v>-288.3999</v>
       </c>
       <c r="AQ135">
-        <v>-314.75</v>
+        <v>0</v>
       </c>
       <c r="AR135">
-        <v>0</v>
+        <v>-74.299805000000006</v>
       </c>
       <c r="AS135">
         <v>0</v>
       </c>
       <c r="AT135">
-        <v>-58.75</v>
+        <v>-45.550293000000003</v>
       </c>
       <c r="AU135">
-        <v>-94.850099999999998</v>
+        <v>-104.8501</v>
       </c>
       <c r="AV135">
-        <v>-234</v>
+        <v>0</v>
       </c>
       <c r="AW135">
-        <v>-79.549805000000006</v>
+        <v>-108.8999</v>
       </c>
       <c r="AX135">
-        <v>-62.550293000000003</v>
+        <v>-178.8999</v>
       </c>
       <c r="AY135">
-        <v>-46.149901999999997</v>
+        <v>0</v>
       </c>
       <c r="AZ135">
-        <v>-75.399900000000002</v>
+        <v>-229.6001</v>
       </c>
       <c r="BA135">
         <v>0</v>
       </c>
       <c r="BB135">
-        <v>-18.299804999999999</v>
+        <v>0</v>
       </c>
       <c r="BC135">
-        <v>-4.8500977000000001</v>
+        <v>-387.9502</v>
       </c>
       <c r="BD135">
-        <v>-103.80029</v>
+        <v>-12.899902000000001</v>
       </c>
       <c r="BE135">
         <v>0</v>
       </c>
       <c r="BF135">
-        <v>-217.6001</v>
+        <v>0</v>
       </c>
       <c r="BG135">
-        <v>-236.75</v>
+        <v>0</v>
       </c>
       <c r="BH135">
-        <v>-66.149413999999993</v>
+        <v>-33.75</v>
       </c>
       <c r="BI135">
-        <v>-279.59960000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ135">
-        <v>-216.2998</v>
+        <v>-109.39941399999999</v>
       </c>
       <c r="BK135">
-        <v>-335.5498</v>
+        <v>-33.599609999999998</v>
       </c>
       <c r="BL135">
-        <v>-75.200194999999994</v>
+        <v>0</v>
       </c>
       <c r="BM135">
-        <v>-45.399414</v>
+        <v>-104.14941399999999</v>
       </c>
       <c r="BN135">
-        <v>-229</v>
+        <v>-64.299805000000006</v>
       </c>
       <c r="BO135">
-        <v>-379.6499</v>
+        <v>0</v>
       </c>
       <c r="BP135">
-        <v>-383.74901999999997</v>
+        <v>-451.24950000000001</v>
       </c>
       <c r="BQ135">
-        <v>-159.89940999999999</v>
+        <v>-50.799804999999999</v>
       </c>
       <c r="BR135">
-        <v>-203.1001</v>
+        <v>-75.25</v>
       </c>
       <c r="BS135">
-        <v>-258.0498</v>
+        <v>-239.6499</v>
       </c>
       <c r="BT135">
-        <v>0</v>
+        <v>-137.30029999999999</v>
       </c>
       <c r="BU135">
-        <v>-217.05029999999999</v>
+        <v>-231.5</v>
       </c>
       <c r="BV135">
-        <v>-76.149900000000002</v>
+        <v>-239.69970000000001</v>
       </c>
       <c r="BW135">
-        <v>-151.59961000000001</v>
+        <v>-112.24951</v>
       </c>
       <c r="BX135">
-        <v>-147.6001</v>
+        <v>-79.299805000000006</v>
       </c>
       <c r="BY135">
-        <v>0</v>
+        <v>-309.09960000000001</v>
       </c>
       <c r="BZ135">
-        <v>-48.75</v>
+        <v>-50.299804999999999</v>
       </c>
       <c r="CA135">
-        <v>-268.9502</v>
+        <v>-246.09961000000001</v>
       </c>
       <c r="CB135">
-        <v>-225.35156000000001</v>
+        <v>-150.90136999999999</v>
       </c>
       <c r="CC135">
-        <v>-551.2998</v>
+        <v>-112.25</v>
       </c>
       <c r="CD135">
-        <v>-104.94922</v>
+        <v>-119.75</v>
       </c>
       <c r="CE135">
-        <v>-214.4502</v>
+        <v>-412.25</v>
       </c>
       <c r="CF135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="CG135">
-        <v>-41.099609999999998</v>
+        <v>0</v>
       </c>
       <c r="CH135">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="CI135">
-        <v>0</v>
+        <v>-2.0996093999999998</v>
       </c>
       <c r="CJ135">
         <v>-13.099608999999999</v>
       </c>
       <c r="CK135">
-        <v>0</v>
+        <v>-193.5498</v>
       </c>
       <c r="CL135">
         <v>0</v>
       </c>
       <c r="CM135">
-        <v>0</v>
+        <v>-170.39940999999999</v>
       </c>
       <c r="CN135">
-        <v>-111.60058600000001</v>
+        <v>-217.2002</v>
       </c>
       <c r="CO135">
-        <v>-84</v>
+        <v>-189.5</v>
       </c>
       <c r="CP135">
-        <v>-21.399414</v>
+        <v>0</v>
       </c>
       <c r="CQ135">
-        <v>0</v>
+        <v>-220.7998</v>
       </c>
       <c r="CR135">
-        <v>-476.09863000000001</v>
+        <v>0</v>
       </c>
       <c r="CS135">
-        <v>0</v>
+        <v>-243.60059000000001</v>
       </c>
       <c r="CT135">
-        <v>-256.59960000000001</v>
+        <v>-213.09961000000001</v>
       </c>
       <c r="CU135">
-        <v>-106.40039</v>
+        <v>-59</v>
       </c>
       <c r="CV135">
-        <v>-295.7002</v>
+        <v>-269.89940000000001</v>
       </c>
       <c r="CW135">
-        <v>-57</v>
+        <v>-153.7998</v>
       </c>
       <c r="CX135">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="CY135">
-        <v>-112.65039</v>
+        <v>0</v>
       </c>
       <c r="CZ135">
-        <v>-164.14940999999999</v>
+        <v>-1070.6504</v>
       </c>
       <c r="DA135">
-        <v>-46.400390000000002</v>
+        <v>-143.64940999999999</v>
       </c>
       <c r="DB135">
-        <v>0</v>
+        <v>-128.0498</v>
       </c>
       <c r="DC135">
-        <v>-69.25</v>
+        <v>0</v>
       </c>
       <c r="DD135">
         <v>0</v>
@@ -43976,7 +43961,7 @@
       </c>
       <c r="D136" s="2">
         <f t="shared" si="9"/>
-        <v>1840.6587872399991</v>
+        <v>499.05962100000033</v>
       </c>
       <c r="E136">
         <f>COUNT(K136:DD136)</f>
@@ -43984,309 +43969,308 @@
       </c>
       <c r="F136">
         <f>COUNTIF(K136:DD136,"&gt;0")</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K136">
-        <v>-5.3999022999999999</v>
+        <v>-181.5</v>
       </c>
       <c r="L136">
-        <v>184.4502</v>
+        <v>-94</v>
       </c>
       <c r="M136">
-        <v>-211.3501</v>
+        <v>-60.999510000000001</v>
       </c>
       <c r="N136">
-        <v>-228.7002</v>
+        <v>0</v>
       </c>
       <c r="O136">
-        <v>-273.55029999999999</v>
+        <v>374.84912000000003</v>
       </c>
       <c r="P136">
-        <v>75.100099999999998</v>
+        <v>204</v>
       </c>
       <c r="Q136">
-        <v>-179.34961000000001</v>
+        <v>286.54932000000002</v>
       </c>
       <c r="R136">
-        <v>39.600098000000003</v>
+        <v>0</v>
       </c>
       <c r="S136">
-        <v>17.399902000000001</v>
+        <v>-213.30029999999999</v>
       </c>
       <c r="T136">
-        <v>-269.89940000000001</v>
+        <v>0</v>
       </c>
       <c r="U136">
-        <v>-107.80029</v>
+        <v>209.8501</v>
       </c>
       <c r="V136">
-        <v>-307.09960000000001</v>
+        <v>191.7002</v>
       </c>
       <c r="W136">
-        <v>-406.6499</v>
+        <v>-66.649900000000002</v>
       </c>
       <c r="X136">
-        <v>220.65038999999999</v>
+        <v>41.650390000000002</v>
       </c>
       <c r="Y136">
-        <v>-258.30077999999997</v>
+        <v>-265.6001</v>
       </c>
       <c r="Z136">
-        <v>-213.50049000000001</v>
+        <v>-30.700195000000001</v>
       </c>
       <c r="AA136">
-        <v>-143.2002</v>
+        <v>-79.949709999999996</v>
       </c>
       <c r="AB136">
-        <v>-198.64940999999999</v>
+        <v>-285.5</v>
       </c>
       <c r="AC136">
-        <v>96.799319999999994</v>
+        <v>171.24950999999999</v>
       </c>
       <c r="AD136">
-        <v>112.55029</v>
+        <v>244.85059000000001</v>
       </c>
       <c r="AE136">
-        <v>-55.350098000000003</v>
+        <v>428.30029999999999</v>
       </c>
       <c r="AF136">
-        <v>259.00049999999999</v>
+        <v>-171.29931999999999</v>
       </c>
       <c r="AG136">
-        <v>80.149900000000002</v>
+        <v>-9.3999020000000009</v>
       </c>
       <c r="AH136">
-        <v>185.40038999999999</v>
+        <v>246.1001</v>
       </c>
       <c r="AI136">
-        <v>27.000488000000001</v>
+        <v>-64.949709999999996</v>
       </c>
       <c r="AJ136">
-        <v>-143.79931999999999</v>
+        <v>-132.09961000000001</v>
       </c>
       <c r="AK136">
-        <v>204.50049000000001</v>
+        <v>314.25049999999999</v>
       </c>
       <c r="AL136">
-        <v>-103.8999</v>
+        <v>-118.99951</v>
       </c>
       <c r="AM136">
+        <v>-31.299804999999999</v>
+      </c>
+      <c r="AN136">
+        <v>-457.44922000000003</v>
+      </c>
+      <c r="AO136">
+        <v>-223.2002</v>
+      </c>
+      <c r="AP136">
+        <v>-288.3999</v>
+      </c>
+      <c r="AQ136">
+        <v>0</v>
+      </c>
+      <c r="AR136">
+        <v>179.4502</v>
+      </c>
+      <c r="AS136">
+        <v>0</v>
+      </c>
+      <c r="AT136">
+        <v>131.64940999999999</v>
+      </c>
+      <c r="AU136">
+        <v>-104.8501</v>
+      </c>
+      <c r="AV136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>369.3501</v>
+      </c>
+      <c r="AX136">
+        <v>-42.399901999999997</v>
+      </c>
+      <c r="AY136">
+        <v>588.3501</v>
+      </c>
+      <c r="AZ136">
+        <v>-229.6001</v>
+      </c>
+      <c r="BA136">
+        <v>28.900390000000002</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>-350.30029999999999</v>
+      </c>
+      <c r="BD136">
+        <v>-12.899902000000001</v>
+      </c>
+      <c r="BE136">
+        <v>577.75049999999999</v>
+      </c>
+      <c r="BF136">
+        <v>52.700195000000001</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>59.299804999999999</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>-109.39941399999999</v>
+      </c>
+      <c r="BK136">
+        <v>359.25</v>
+      </c>
+      <c r="BL136">
+        <v>766.2002</v>
+      </c>
+      <c r="BM136">
+        <v>-104.14941399999999</v>
+      </c>
+      <c r="BN136">
+        <v>-64.299805000000006</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>-451.24950000000001</v>
+      </c>
+      <c r="BQ136">
+        <v>-50.799804999999999</v>
+      </c>
+      <c r="BR136">
+        <v>259</v>
+      </c>
+      <c r="BS136">
+        <v>-239.6499</v>
+      </c>
+      <c r="BT136">
+        <v>107.04931999999999</v>
+      </c>
+      <c r="BU136">
+        <v>-231.5</v>
+      </c>
+      <c r="BV136">
+        <v>-83.999510000000001</v>
+      </c>
+      <c r="BW136">
+        <v>-112.24951</v>
+      </c>
+      <c r="BX136">
+        <v>-22.5</v>
+      </c>
+      <c r="BY136">
+        <v>-75.75</v>
+      </c>
+      <c r="BZ136">
+        <v>-31.999023000000001</v>
+      </c>
+      <c r="CA136">
+        <v>-243.25</v>
+      </c>
+      <c r="CB136">
+        <v>-150.90136999999999</v>
+      </c>
+      <c r="CC136">
+        <v>-112.25</v>
+      </c>
+      <c r="CD136">
+        <v>129.6001</v>
+      </c>
+      <c r="CE136">
+        <v>-201.30029999999999</v>
+      </c>
+      <c r="CF136">
         <v>22.5</v>
       </c>
-      <c r="AN136">
-        <v>-122.30029</v>
-      </c>
-      <c r="AO136">
-        <v>-203.6001</v>
-      </c>
-      <c r="AP136">
-        <v>-258.69970000000001</v>
-      </c>
-      <c r="AQ136">
-        <v>-184.59961000000001</v>
-      </c>
-      <c r="AR136">
-        <v>0</v>
-      </c>
-      <c r="AS136">
-        <v>498.05029999999999</v>
-      </c>
-      <c r="AT136">
-        <v>57.349609999999998</v>
-      </c>
-      <c r="AU136">
-        <v>0.89990234000000002</v>
-      </c>
-      <c r="AV136">
-        <v>-197.75</v>
-      </c>
-      <c r="AW136">
-        <v>-79.549805000000006</v>
-      </c>
-      <c r="AX136">
-        <v>313.75</v>
-      </c>
-      <c r="AY136">
-        <v>-46.149901999999997</v>
-      </c>
-      <c r="AZ136">
-        <v>776.2002</v>
-      </c>
-      <c r="BA136">
-        <v>92.550290000000004</v>
-      </c>
-      <c r="BB136">
-        <v>61.299804999999999</v>
-      </c>
-      <c r="BC136">
-        <v>450.0498</v>
-      </c>
-      <c r="BD136">
-        <v>-103.80029</v>
-      </c>
-      <c r="BE136">
-        <v>0</v>
-      </c>
-      <c r="BF136">
-        <v>542.40039999999999</v>
-      </c>
-      <c r="BG136">
-        <v>-236.75</v>
-      </c>
-      <c r="BH136">
-        <v>350.60059999999999</v>
-      </c>
-      <c r="BI136">
-        <v>-279.59960000000001</v>
-      </c>
-      <c r="BJ136">
-        <v>82.700194999999994</v>
-      </c>
-      <c r="BK136">
-        <v>-335.5498</v>
-      </c>
-      <c r="BL136">
-        <v>179.6001</v>
-      </c>
-      <c r="BM136">
-        <v>-40.449219999999997</v>
-      </c>
-      <c r="BN136">
-        <v>-0.79931640000000004</v>
-      </c>
-      <c r="BO136">
-        <v>-379.6499</v>
-      </c>
-      <c r="BP136">
-        <v>-383.74901999999997</v>
-      </c>
-      <c r="BQ136">
-        <v>-159.89940999999999</v>
-      </c>
-      <c r="BR136">
-        <v>-30.5</v>
-      </c>
-      <c r="BS136">
-        <v>-25.549804999999999</v>
-      </c>
-      <c r="BT136">
-        <v>181.5</v>
-      </c>
-      <c r="BU136">
-        <v>-217.05029999999999</v>
-      </c>
-      <c r="BV136">
-        <v>14.600097999999999</v>
-      </c>
-      <c r="BW136">
-        <v>97.250489999999999</v>
-      </c>
-      <c r="BX136">
-        <v>205.5</v>
-      </c>
-      <c r="BY136">
-        <v>0</v>
-      </c>
-      <c r="BZ136">
-        <v>438.75098000000003</v>
-      </c>
-      <c r="CA136">
-        <v>-138.00098</v>
-      </c>
-      <c r="CB136">
-        <v>-136.75194999999999</v>
-      </c>
-      <c r="CC136">
-        <v>-486.25</v>
-      </c>
-      <c r="CD136">
-        <v>-26.099121</v>
-      </c>
-      <c r="CE136">
-        <v>-214.4502</v>
-      </c>
-      <c r="CF136">
-        <v>0</v>
-      </c>
       <c r="CG136">
-        <v>513.55079999999998</v>
+        <v>124</v>
       </c>
       <c r="CH136">
-        <v>33</v>
+        <v>80.650390000000002</v>
       </c>
       <c r="CI136">
-        <v>168.2002</v>
+        <v>164.00098</v>
       </c>
       <c r="CJ136">
-        <v>55.200195000000001</v>
+        <v>36.000976999999999</v>
       </c>
       <c r="CK136">
-        <v>0</v>
+        <v>18.600586</v>
       </c>
       <c r="CL136">
-        <v>548.2002</v>
+        <v>116.34961</v>
       </c>
       <c r="CM136">
-        <v>80</v>
+        <v>-158.34961000000001</v>
       </c>
       <c r="CN136">
-        <v>13.249022999999999</v>
+        <v>295.7002</v>
       </c>
       <c r="CO136">
-        <v>-3.5996093999999998</v>
+        <v>-36.5</v>
       </c>
       <c r="CP136">
-        <v>52.100586</v>
+        <v>324.09960000000001</v>
       </c>
       <c r="CQ136">
-        <v>0</v>
+        <v>-220.7998</v>
       </c>
       <c r="CR136">
-        <v>-178.69922</v>
+        <v>509.90039999999999</v>
       </c>
       <c r="CS136">
-        <v>132.89940999999999</v>
+        <v>-243.60059000000001</v>
       </c>
       <c r="CT136">
-        <v>-57.499023000000001</v>
+        <v>182.40038999999999</v>
       </c>
       <c r="CU136">
-        <v>62.5</v>
+        <v>-59</v>
       </c>
       <c r="CV136">
-        <v>-269.90039999999999</v>
+        <v>-87.499020000000002</v>
       </c>
       <c r="CW136">
-        <v>-57</v>
+        <v>126.79980500000001</v>
       </c>
       <c r="CX136">
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="CY136">
-        <v>759.89844000000005</v>
+        <v>100.25</v>
       </c>
       <c r="CZ136">
-        <v>324.30077999999997</v>
+        <v>-1070.6504</v>
       </c>
       <c r="DA136">
-        <v>-16.099609999999998</v>
+        <v>-143.64940999999999</v>
       </c>
       <c r="DB136">
-        <v>944.75</v>
+        <v>-128.0498</v>
       </c>
       <c r="DC136">
-        <v>61.000976999999999</v>
+        <v>0</v>
       </c>
       <c r="DD136">
-        <v>200.49902</v>
+        <v>29.099609999999998</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:DE109" xr:uid="{57E07161-1544-4B73-86C8-AB302CB14B9F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="13EMA Trend"/>
-        <filter val="5EMA Trend"/>
+        <filter val="MACD Hist 5,13 Same TimeFormat Trend"/>
       </filters>
     </filterColumn>
   </autoFilter>
